--- a/data/input/eurobank/202507.xlsx
+++ b/data/input/eurobank/202507.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cervedgroup-my.sharepoint.com/personal/alexis_milionis_cerved_com/Documents/codebase/Utilities/streamlit/data/input/eurobank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_0859CCC9FD8FF084C13C18461B00AF345D600D05" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{474D89F5-8B0C-4D46-9752-976301308FAB}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_0859CCC9FD8FF084C13C18461B00AF345D600D05" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB2B4560-4A51-4799-8C4B-A81677B1018E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -4937,11 +4937,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AQ681"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A650" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AO681" sqref="AO681"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11013,7 +11014,7 @@
         <v>45779</v>
       </c>
     </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>1530289</v>
       </c>
@@ -11078,7 +11079,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>1394023</v>
       </c>
@@ -11143,7 +11144,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>1394024</v>
       </c>
@@ -11208,7 +11209,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>289233</v>
       </c>
@@ -11273,7 +11274,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="65" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>66</v>
       </c>
@@ -11374,7 +11375,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="66" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>66</v>
       </c>
@@ -11475,7 +11476,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="67" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>61</v>
       </c>
@@ -11579,7 +11580,7 @@
         <v>40343</v>
       </c>
     </row>
-    <row r="68" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>61</v>
       </c>
@@ -11683,7 +11684,7 @@
         <v>40438</v>
       </c>
     </row>
-    <row r="69" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>61</v>
       </c>
@@ -11787,7 +11788,7 @@
         <v>40526</v>
       </c>
     </row>
-    <row r="70" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>61</v>
       </c>
@@ -11891,7 +11892,7 @@
         <v>40617</v>
       </c>
     </row>
-    <row r="71" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>61</v>
       </c>
@@ -11995,7 +11996,7 @@
         <v>40703</v>
       </c>
     </row>
-    <row r="72" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>61</v>
       </c>
@@ -12099,7 +12100,7 @@
         <v>40795</v>
       </c>
     </row>
-    <row r="73" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>61</v>
       </c>
@@ -12203,7 +12204,7 @@
         <v>40886</v>
       </c>
     </row>
-    <row r="74" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>61</v>
       </c>
@@ -12307,7 +12308,7 @@
         <v>40977</v>
       </c>
     </row>
-    <row r="75" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>61</v>
       </c>
@@ -12411,7 +12412,7 @@
         <v>41068</v>
       </c>
     </row>
-    <row r="76" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>61</v>
       </c>
@@ -12515,7 +12516,7 @@
         <v>41165</v>
       </c>
     </row>
-    <row r="77" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>61</v>
       </c>
@@ -12619,7 +12620,7 @@
         <v>41255</v>
       </c>
     </row>
-    <row r="78" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>61</v>
       </c>
@@ -12723,7 +12724,7 @@
         <v>41365</v>
       </c>
     </row>
-    <row r="79" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>61</v>
       </c>
@@ -12827,7 +12828,7 @@
         <v>41445</v>
       </c>
     </row>
-    <row r="80" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>61</v>
       </c>
@@ -12931,7 +12932,7 @@
         <v>41548</v>
       </c>
     </row>
-    <row r="81" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>61</v>
       </c>
@@ -13035,7 +13036,7 @@
         <v>41638</v>
       </c>
     </row>
-    <row r="82" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>61</v>
       </c>
@@ -13139,7 +13140,7 @@
         <v>41726</v>
       </c>
     </row>
-    <row r="83" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>61</v>
       </c>
@@ -13243,7 +13244,7 @@
         <v>41813</v>
       </c>
     </row>
-    <row r="84" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>61</v>
       </c>
@@ -13347,7 +13348,7 @@
         <v>41904</v>
       </c>
     </row>
-    <row r="85" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>61</v>
       </c>
@@ -13451,7 +13452,7 @@
         <v>41996</v>
       </c>
     </row>
-    <row r="86" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>61</v>
       </c>
@@ -13552,7 +13553,7 @@
         <v>42109</v>
       </c>
     </row>
-    <row r="87" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>61</v>
       </c>
@@ -13653,7 +13654,7 @@
         <v>42188</v>
       </c>
     </row>
-    <row r="88" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>61</v>
       </c>
@@ -13754,7 +13755,7 @@
         <v>42276</v>
       </c>
     </row>
-    <row r="89" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>61</v>
       </c>
@@ -13855,7 +13856,7 @@
         <v>42359</v>
       </c>
     </row>
-    <row r="90" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>61</v>
       </c>
@@ -13956,7 +13957,7 @@
         <v>42447</v>
       </c>
     </row>
-    <row r="91" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>61</v>
       </c>
@@ -14057,7 +14058,7 @@
         <v>42538</v>
       </c>
     </row>
-    <row r="92" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>61</v>
       </c>
@@ -14158,7 +14159,7 @@
         <v>42625</v>
       </c>
     </row>
-    <row r="93" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>61</v>
       </c>
@@ -14259,7 +14260,7 @@
         <v>42709</v>
       </c>
     </row>
-    <row r="94" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>61</v>
       </c>
@@ -14360,7 +14361,7 @@
         <v>42811</v>
       </c>
     </row>
-    <row r="95" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>61</v>
       </c>
@@ -14461,7 +14462,7 @@
         <v>42901</v>
       </c>
     </row>
-    <row r="96" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>61</v>
       </c>
@@ -14562,7 +14563,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="97" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>61</v>
       </c>
@@ -14663,7 +14664,7 @@
         <v>43074</v>
       </c>
     </row>
-    <row r="98" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>61</v>
       </c>
@@ -14764,7 +14765,7 @@
         <v>43164</v>
       </c>
     </row>
-    <row r="99" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>61</v>
       </c>
@@ -14865,7 +14866,7 @@
         <v>43263</v>
       </c>
     </row>
-    <row r="100" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>70</v>
       </c>
@@ -14966,7 +14967,7 @@
         <v>43369</v>
       </c>
     </row>
-    <row r="101" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>70</v>
       </c>
@@ -15070,7 +15071,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="102" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>70</v>
       </c>
@@ -15171,7 +15172,7 @@
         <v>43543</v>
       </c>
     </row>
-    <row r="103" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>70</v>
       </c>
@@ -15272,7 +15273,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="104" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>70</v>
       </c>
@@ -15373,7 +15374,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="105" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>72</v>
       </c>
@@ -15474,7 +15475,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="106" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>72</v>
       </c>
@@ -15581,7 +15582,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="107" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>72</v>
       </c>
@@ -15682,7 +15683,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="108" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>72</v>
       </c>
@@ -15789,7 +15790,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="109" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>72</v>
       </c>
@@ -15890,7 +15891,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="110" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>72</v>
       </c>
@@ -15997,7 +15998,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="111" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>72</v>
       </c>
@@ -16098,7 +16099,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="112" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>72</v>
       </c>
@@ -16199,7 +16200,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="113" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>72</v>
       </c>
@@ -16300,7 +16301,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="114" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>72</v>
       </c>
@@ -16401,7 +16402,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="115" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>72</v>
       </c>
@@ -16514,7 +16515,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="116" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>72</v>
       </c>
@@ -16621,7 +16622,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="117" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>72</v>
       </c>
@@ -16728,7 +16729,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="118" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>72</v>
       </c>
@@ -16829,7 +16830,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="119" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>72</v>
       </c>
@@ -16930,7 +16931,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="120" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>73</v>
       </c>
@@ -17031,7 +17032,7 @@
         <v>45826</v>
       </c>
     </row>
-    <row r="121" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>73</v>
       </c>
@@ -17132,7 +17133,7 @@
         <v>45826</v>
       </c>
     </row>
-    <row r="122" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>70</v>
       </c>
@@ -17239,7 +17240,7 @@
         <v>45824</v>
       </c>
     </row>
-    <row r="123" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>75</v>
       </c>
@@ -17340,7 +17341,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="124" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>90</v>
       </c>
@@ -17429,7 +17430,7 @@
         <v>45821</v>
       </c>
     </row>
-    <row r="125" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>689361</v>
       </c>
@@ -17494,7 +17495,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="126" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>90</v>
       </c>
@@ -17583,7 +17584,7 @@
         <v>45821</v>
       </c>
     </row>
-    <row r="127" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>689362</v>
       </c>
@@ -17648,7 +17649,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="128" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>75</v>
       </c>
@@ -17761,7 +17762,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="129" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>75</v>
       </c>
@@ -17862,7 +17863,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="130" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>75</v>
       </c>
@@ -17969,7 +17970,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="131" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>75</v>
       </c>
@@ -18076,7 +18077,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="132" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>76</v>
       </c>
@@ -18177,7 +18178,7 @@
         <v>45828</v>
       </c>
     </row>
-    <row r="133" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>78</v>
       </c>
@@ -18278,7 +18279,7 @@
         <v>45831</v>
       </c>
     </row>
-    <row r="134" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>78</v>
       </c>
@@ -18379,7 +18380,7 @@
         <v>45831</v>
       </c>
     </row>
-    <row r="135" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>78</v>
       </c>
@@ -18468,7 +18469,7 @@
         <v>45831</v>
       </c>
     </row>
-    <row r="136" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>79</v>
       </c>
@@ -18569,7 +18570,7 @@
         <v>45832</v>
       </c>
     </row>
-    <row r="137" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>84</v>
       </c>
@@ -18676,7 +18677,7 @@
         <v>45835</v>
       </c>
     </row>
-    <row r="138" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>1371221</v>
       </c>
@@ -18741,7 +18742,7 @@
         <v>45222</v>
       </c>
     </row>
-    <row r="139" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>1371221</v>
       </c>
@@ -18806,7 +18807,7 @@
         <v>45334</v>
       </c>
     </row>
-    <row r="140" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>957542</v>
       </c>
@@ -18871,7 +18872,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="141" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>8782631</v>
       </c>
@@ -18936,7 +18937,7 @@
         <v>43346</v>
       </c>
     </row>
-    <row r="142" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B142">
         <v>8782631</v>
       </c>
@@ -19001,7 +19002,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="143" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>8782631</v>
       </c>
@@ -19066,7 +19067,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="144" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>8782631</v>
       </c>
@@ -19131,7 +19132,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="145" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>8782631</v>
       </c>
@@ -19196,7 +19197,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="146" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>8782631</v>
       </c>
@@ -19261,7 +19262,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="147" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>8782631</v>
       </c>
@@ -19326,7 +19327,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="148" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>812750</v>
       </c>
@@ -19391,7 +19392,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="149" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B149">
         <v>1262829</v>
       </c>
@@ -19456,7 +19457,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="150" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>552561</v>
       </c>
@@ -19521,7 +19522,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="151" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>1350081</v>
       </c>
@@ -19586,7 +19587,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="152" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>57</v>
       </c>
@@ -19687,7 +19688,7 @@
         <v>45812</v>
       </c>
     </row>
-    <row r="153" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>58</v>
       </c>
@@ -19788,7 +19789,7 @@
         <v>45813</v>
       </c>
     </row>
-    <row r="154" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>58</v>
       </c>
@@ -19889,7 +19890,7 @@
         <v>45813</v>
       </c>
     </row>
-    <row r="155" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>58</v>
       </c>
@@ -19978,7 +19979,7 @@
         <v>45813</v>
       </c>
     </row>
-    <row r="156" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>58</v>
       </c>
@@ -20079,7 +20080,7 @@
         <v>45813</v>
       </c>
     </row>
-    <row r="157" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>58</v>
       </c>
@@ -20180,7 +20181,7 @@
         <v>45813</v>
       </c>
     </row>
-    <row r="158" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>61</v>
       </c>
@@ -20281,7 +20282,7 @@
         <v>45813</v>
       </c>
     </row>
-    <row r="159" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>61</v>
       </c>
@@ -20382,7 +20383,7 @@
         <v>45813</v>
       </c>
     </row>
-    <row r="160" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>63</v>
       </c>
@@ -20483,7 +20484,7 @@
         <v>45814</v>
       </c>
     </row>
-    <row r="161" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>67</v>
       </c>
@@ -20572,7 +20573,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="162" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>73</v>
       </c>
@@ -20679,7 +20680,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="163" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>73</v>
       </c>
@@ -20786,7 +20787,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="164" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>73</v>
       </c>
@@ -20893,7 +20894,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="165" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>75</v>
       </c>
@@ -20982,7 +20983,7 @@
         <v>45831</v>
       </c>
     </row>
-    <row r="166" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>76</v>
       </c>
@@ -21083,7 +21084,7 @@
         <v>45831</v>
       </c>
     </row>
-    <row r="167" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>76</v>
       </c>
@@ -21184,7 +21185,7 @@
         <v>45831</v>
       </c>
     </row>
-    <row r="168" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>81</v>
       </c>
@@ -21285,7 +21286,7 @@
         <v>45834</v>
       </c>
     </row>
-    <row r="169" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>81</v>
       </c>
@@ -21386,7 +21387,7 @@
         <v>45834</v>
       </c>
     </row>
-    <row r="170" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>82</v>
       </c>
@@ -21487,7 +21488,7 @@
         <v>45835</v>
       </c>
     </row>
-    <row r="171" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>82</v>
       </c>
@@ -21594,7 +21595,7 @@
         <v>45835</v>
       </c>
     </row>
-    <row r="172" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>84</v>
       </c>
@@ -21695,7 +21696,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="173" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>87</v>
       </c>
@@ -21796,7 +21797,7 @@
         <v>45839</v>
       </c>
     </row>
-    <row r="174" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>87</v>
       </c>
@@ -21897,7 +21898,7 @@
         <v>45839</v>
       </c>
     </row>
-    <row r="175" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>88</v>
       </c>
@@ -21995,7 +21996,7 @@
         <v>45841</v>
       </c>
     </row>
-    <row r="176" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B176">
         <v>386584</v>
       </c>
@@ -22060,7 +22061,7 @@
         <v>42383</v>
       </c>
     </row>
-    <row r="177" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>13</v>
       </c>
@@ -22161,7 +22162,7 @@
         <v>42401</v>
       </c>
     </row>
-    <row r="178" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>13</v>
       </c>
@@ -22262,7 +22263,7 @@
         <v>42488</v>
       </c>
     </row>
-    <row r="179" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>13</v>
       </c>
@@ -22363,7 +22364,7 @@
         <v>42577</v>
       </c>
     </row>
-    <row r="180" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>13</v>
       </c>
@@ -22464,7 +22465,7 @@
         <v>42663</v>
       </c>
     </row>
-    <row r="181" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>13</v>
       </c>
@@ -22565,7 +22566,7 @@
         <v>42754</v>
       </c>
     </row>
-    <row r="182" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>13</v>
       </c>
@@ -22666,7 +22667,7 @@
         <v>42845</v>
       </c>
     </row>
-    <row r="183" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>13</v>
       </c>
@@ -22767,7 +22768,7 @@
         <v>42942</v>
       </c>
     </row>
-    <row r="184" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>13</v>
       </c>
@@ -22868,7 +22869,7 @@
         <v>43033</v>
       </c>
     </row>
-    <row r="185" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>13</v>
       </c>
@@ -22969,7 +22970,7 @@
         <v>43118</v>
       </c>
     </row>
-    <row r="186" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>13</v>
       </c>
@@ -23070,7 +23071,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="187" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>13</v>
       </c>
@@ -23171,7 +23172,7 @@
         <v>43301</v>
       </c>
     </row>
-    <row r="188" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>13</v>
       </c>
@@ -23272,7 +23273,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="189" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>13</v>
       </c>
@@ -23373,7 +23374,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="190" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>13</v>
       </c>
@@ -23474,7 +23475,7 @@
         <v>43573</v>
       </c>
     </row>
-    <row r="191" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>13</v>
       </c>
@@ -23575,7 +23576,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="192" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>13</v>
       </c>
@@ -23676,7 +23677,7 @@
         <v>43759</v>
       </c>
     </row>
-    <row r="193" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>13</v>
       </c>
@@ -23777,7 +23778,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="194" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>13</v>
       </c>
@@ -23878,7 +23879,7 @@
         <v>43959</v>
       </c>
     </row>
-    <row r="195" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>13</v>
       </c>
@@ -23979,7 +23980,7 @@
         <v>44056</v>
       </c>
     </row>
-    <row r="196" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>13</v>
       </c>
@@ -24080,7 +24081,7 @@
         <v>44152</v>
       </c>
     </row>
-    <row r="197" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>13</v>
       </c>
@@ -24181,7 +24182,7 @@
         <v>44221</v>
       </c>
     </row>
-    <row r="198" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>13</v>
       </c>
@@ -24282,7 +24283,7 @@
         <v>44306</v>
       </c>
     </row>
-    <row r="199" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>13</v>
       </c>
@@ -24383,7 +24384,7 @@
         <v>44399</v>
       </c>
     </row>
-    <row r="200" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>13</v>
       </c>
@@ -24484,7 +24485,7 @@
         <v>44531</v>
       </c>
     </row>
-    <row r="201" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>13</v>
       </c>
@@ -24588,7 +24589,7 @@
         <v>44589</v>
       </c>
     </row>
-    <row r="202" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>13</v>
       </c>
@@ -24689,7 +24690,7 @@
         <v>44670</v>
       </c>
     </row>
-    <row r="203" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>13</v>
       </c>
@@ -24790,7 +24791,7 @@
         <v>44762</v>
       </c>
     </row>
-    <row r="204" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>13</v>
       </c>
@@ -24891,7 +24892,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="205" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>13</v>
       </c>
@@ -24992,7 +24993,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="206" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>13</v>
       </c>
@@ -25093,7 +25094,7 @@
         <v>45042</v>
       </c>
     </row>
-    <row r="207" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>13</v>
       </c>
@@ -25194,7 +25195,7 @@
         <v>45124</v>
       </c>
     </row>
-    <row r="208" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>13</v>
       </c>
@@ -25295,7 +25296,7 @@
         <v>45218</v>
       </c>
     </row>
-    <row r="209" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>13</v>
       </c>
@@ -25396,7 +25397,7 @@
         <v>45314</v>
       </c>
     </row>
-    <row r="210" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>13</v>
       </c>
@@ -25497,7 +25498,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="211" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>13</v>
       </c>
@@ -25598,7 +25599,7 @@
         <v>45490</v>
       </c>
     </row>
-    <row r="212" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>13</v>
       </c>
@@ -25699,7 +25700,7 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="213" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>13</v>
       </c>
@@ -25800,7 +25801,7 @@
         <v>45681</v>
       </c>
     </row>
-    <row r="214" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>13</v>
       </c>
@@ -25901,7 +25902,7 @@
         <v>45770</v>
       </c>
     </row>
-    <row r="215" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B215">
         <v>386584</v>
       </c>
@@ -25966,7 +25967,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="216" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B216">
         <v>386584</v>
       </c>
@@ -26031,7 +26032,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="217" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B217">
         <v>386584</v>
       </c>
@@ -26096,7 +26097,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="218" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B218">
         <v>386584</v>
       </c>
@@ -26161,7 +26162,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="219" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B219">
         <v>386584</v>
       </c>
@@ -26226,7 +26227,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="220" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B220">
         <v>386584</v>
       </c>
@@ -26291,7 +26292,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="221" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B221">
         <v>386584</v>
       </c>
@@ -26356,7 +26357,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="222" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B222">
         <v>386584</v>
       </c>
@@ -26421,7 +26422,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="223" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B223">
         <v>386584</v>
       </c>
@@ -26486,7 +26487,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="224" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B224">
         <v>386584</v>
       </c>
@@ -26551,7 +26552,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="225" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B225">
         <v>386584</v>
       </c>
@@ -26616,7 +26617,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="226" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B226">
         <v>386584</v>
       </c>
@@ -26681,7 +26682,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="227" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B227">
         <v>386584</v>
       </c>
@@ -26746,7 +26747,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="228" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B228">
         <v>386584</v>
       </c>
@@ -26811,7 +26812,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="229" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B229">
         <v>386584</v>
       </c>
@@ -26876,7 +26877,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="230" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B230">
         <v>386584</v>
       </c>
@@ -26941,7 +26942,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="231" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B231">
         <v>386584</v>
       </c>
@@ -27006,7 +27007,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="232" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B232">
         <v>386584</v>
       </c>
@@ -27071,7 +27072,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="233" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B233">
         <v>386584</v>
       </c>
@@ -27136,7 +27137,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="234" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B234">
         <v>386584</v>
       </c>
@@ -27201,7 +27202,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="235" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B235">
         <v>386584</v>
       </c>
@@ -27266,7 +27267,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="236" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B236">
         <v>386584</v>
       </c>
@@ -27331,7 +27332,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="237" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B237">
         <v>386584</v>
       </c>
@@ -27396,7 +27397,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="238" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B238">
         <v>386584</v>
       </c>
@@ -27461,7 +27462,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="239" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B239">
         <v>386584</v>
       </c>
@@ -27526,7 +27527,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="240" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B240">
         <v>386584</v>
       </c>
@@ -27591,7 +27592,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="241" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B241">
         <v>386584</v>
       </c>
@@ -27656,7 +27657,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="242" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B242">
         <v>386584</v>
       </c>
@@ -27721,7 +27722,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="243" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B243">
         <v>386584</v>
       </c>
@@ -27786,7 +27787,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="244" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B244">
         <v>386584</v>
       </c>
@@ -27851,7 +27852,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="245" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B245">
         <v>386584</v>
       </c>
@@ -27916,7 +27917,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="246" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B246">
         <v>386584</v>
       </c>
@@ -27981,7 +27982,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="247" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B247">
         <v>386584</v>
       </c>
@@ -28046,7 +28047,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="248" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B248">
         <v>386584</v>
       </c>
@@ -28111,7 +28112,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="249" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B249">
         <v>386584</v>
       </c>
@@ -28176,7 +28177,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="250" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B250">
         <v>386584</v>
       </c>
@@ -28241,7 +28242,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="251" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B251">
         <v>386584</v>
       </c>
@@ -28306,7 +28307,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="252" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B252">
         <v>386584</v>
       </c>
@@ -28371,7 +28372,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="253" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B253">
         <v>1086140</v>
       </c>
@@ -28436,7 +28437,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="254" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B254">
         <v>953616</v>
       </c>
@@ -28501,7 +28502,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="255" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B255">
         <v>1594228</v>
       </c>
@@ -28566,7 +28567,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="256" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B256">
         <v>1594228</v>
       </c>
@@ -28631,7 +28632,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="257" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>79</v>
       </c>
@@ -28750,7 +28751,7 @@
         <v>45832</v>
       </c>
     </row>
-    <row r="258" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>88</v>
       </c>
@@ -28851,7 +28852,7 @@
         <v>45840</v>
       </c>
     </row>
-    <row r="259" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>7</v>
       </c>
@@ -28952,7 +28953,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="260" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>7</v>
       </c>
@@ -29053,7 +29054,7 @@
         <v>44047</v>
       </c>
     </row>
-    <row r="261" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>7</v>
       </c>
@@ -29157,7 +29158,7 @@
         <v>44146</v>
       </c>
     </row>
-    <row r="262" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>7</v>
       </c>
@@ -29258,7 +29259,7 @@
         <v>44216</v>
       </c>
     </row>
-    <row r="263" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>7</v>
       </c>
@@ -29359,7 +29360,7 @@
         <v>44295</v>
       </c>
     </row>
-    <row r="264" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>7</v>
       </c>
@@ -29460,7 +29461,7 @@
         <v>44396</v>
       </c>
     </row>
-    <row r="265" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>7</v>
       </c>
@@ -29561,7 +29562,7 @@
         <v>44526</v>
       </c>
     </row>
-    <row r="266" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>7</v>
       </c>
@@ -29665,7 +29666,7 @@
         <v>44582</v>
       </c>
     </row>
-    <row r="267" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>7</v>
       </c>
@@ -29766,7 +29767,7 @@
         <v>44663</v>
       </c>
     </row>
-    <row r="268" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>7</v>
       </c>
@@ -29867,7 +29868,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="269" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>7</v>
       </c>
@@ -29968,7 +29969,7 @@
         <v>44846</v>
       </c>
     </row>
-    <row r="270" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>7</v>
       </c>
@@ -30069,7 +30070,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="271" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>7</v>
       </c>
@@ -30170,7 +30171,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="272" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>7</v>
       </c>
@@ -30271,7 +30272,7 @@
         <v>45673</v>
       </c>
     </row>
-    <row r="273" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>7</v>
       </c>
@@ -30372,7 +30373,7 @@
         <v>45761</v>
       </c>
     </row>
-    <row r="274" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B274">
         <v>349939</v>
       </c>
@@ -30437,7 +30438,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="275" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B275">
         <v>1890449</v>
       </c>
@@ -30502,7 +30503,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="276" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B276">
         <v>1890449</v>
       </c>
@@ -30567,7 +30568,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="277" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B277">
         <v>1519148</v>
       </c>
@@ -30632,7 +30633,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="278" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B278">
         <v>770702</v>
       </c>
@@ -30697,7 +30698,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="279" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B279">
         <v>770702</v>
       </c>
@@ -30762,7 +30763,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="280" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B280">
         <v>770702</v>
       </c>
@@ -30827,7 +30828,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="281" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B281">
         <v>770702</v>
       </c>
@@ -30892,7 +30893,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="282" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B282">
         <v>770702</v>
       </c>
@@ -30957,7 +30958,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="283" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B283">
         <v>770702</v>
       </c>
@@ -31022,7 +31023,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="284" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B284">
         <v>770702</v>
       </c>
@@ -31087,7 +31088,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="285" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B285">
         <v>770702</v>
       </c>
@@ -31152,7 +31153,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="286" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B286">
         <v>770702</v>
       </c>
@@ -31217,7 +31218,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="287" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B287">
         <v>770702</v>
       </c>
@@ -31282,7 +31283,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="288" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B288">
         <v>770702</v>
       </c>
@@ -31347,7 +31348,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="289" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B289">
         <v>770702</v>
       </c>
@@ -31412,7 +31413,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="290" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B290">
         <v>770702</v>
       </c>
@@ -31477,7 +31478,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="291" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B291">
         <v>770702</v>
       </c>
@@ -31542,7 +31543,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="292" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B292">
         <v>770702</v>
       </c>
@@ -31607,7 +31608,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="293" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B293">
         <v>770702</v>
       </c>
@@ -31672,7 +31673,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="294" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B294">
         <v>770702</v>
       </c>
@@ -31737,7 +31738,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="295" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B295">
         <v>770702</v>
       </c>
@@ -31802,7 +31803,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="296" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B296">
         <v>770702</v>
       </c>
@@ -31867,7 +31868,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="297" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B297">
         <v>770702</v>
       </c>
@@ -31932,7 +31933,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="298" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B298">
         <v>1592066</v>
       </c>
@@ -31997,7 +31998,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="299" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B299">
         <v>1337091</v>
       </c>
@@ -32062,7 +32063,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="300" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>67</v>
       </c>
@@ -32169,7 +32170,7 @@
         <v>45824</v>
       </c>
     </row>
-    <row r="301" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>66</v>
       </c>
@@ -32270,7 +32271,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="302" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>66</v>
       </c>
@@ -32371,7 +32372,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="303" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>66</v>
       </c>
@@ -32472,7 +32473,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="304" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>64</v>
       </c>
@@ -32573,7 +32574,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="305" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>64</v>
       </c>
@@ -32674,7 +32675,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="306" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>64</v>
       </c>
@@ -32775,7 +32776,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="307" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>64</v>
       </c>
@@ -32876,7 +32877,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="308" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>64</v>
       </c>
@@ -32977,7 +32978,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="309" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>64</v>
       </c>
@@ -33078,7 +33079,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="310" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>52</v>
       </c>
@@ -33179,7 +33180,7 @@
         <v>45447</v>
       </c>
     </row>
-    <row r="311" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>52</v>
       </c>
@@ -33280,7 +33281,7 @@
         <v>45532</v>
       </c>
     </row>
-    <row r="312" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>52</v>
       </c>
@@ -33381,7 +33382,7 @@
         <v>45622</v>
       </c>
     </row>
-    <row r="313" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>52</v>
       </c>
@@ -33482,7 +33483,7 @@
         <v>45716</v>
       </c>
     </row>
-    <row r="314" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>52</v>
       </c>
@@ -33583,7 +33584,7 @@
         <v>45805</v>
       </c>
     </row>
-    <row r="315" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>67</v>
       </c>
@@ -33684,7 +33685,7 @@
         <v>45824</v>
       </c>
     </row>
-    <row r="316" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>67</v>
       </c>
@@ -33791,7 +33792,7 @@
         <v>45824</v>
       </c>
     </row>
-    <row r="317" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>67</v>
       </c>
@@ -33892,7 +33893,7 @@
         <v>45824</v>
       </c>
     </row>
-    <row r="318" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>69</v>
       </c>
@@ -33993,7 +33994,7 @@
         <v>45824</v>
       </c>
     </row>
-    <row r="319" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>66</v>
       </c>
@@ -34094,7 +34095,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="320" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>70</v>
       </c>
@@ -34195,7 +34196,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="321" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>72</v>
       </c>
@@ -34296,7 +34297,7 @@
         <v>45826</v>
       </c>
     </row>
-    <row r="322" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>72</v>
       </c>
@@ -34397,7 +34398,7 @@
         <v>45826</v>
       </c>
     </row>
-    <row r="323" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>73</v>
       </c>
@@ -34504,7 +34505,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="324" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>73</v>
       </c>
@@ -34605,7 +34606,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="325" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>73</v>
       </c>
@@ -34706,7 +34707,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="326" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>81</v>
       </c>
@@ -34807,7 +34808,7 @@
         <v>45835</v>
       </c>
     </row>
-    <row r="327" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>81</v>
       </c>
@@ -34908,7 +34909,7 @@
         <v>45835</v>
       </c>
     </row>
-    <row r="328" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>81</v>
       </c>
@@ -35009,7 +35010,7 @@
         <v>45835</v>
       </c>
     </row>
-    <row r="329" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>81</v>
       </c>
@@ -35098,7 +35099,7 @@
         <v>45835</v>
       </c>
     </row>
-    <row r="330" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>84</v>
       </c>
@@ -35205,7 +35206,7 @@
         <v>45839</v>
       </c>
     </row>
-    <row r="331" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>85</v>
       </c>
@@ -35312,7 +35313,7 @@
         <v>45840</v>
       </c>
     </row>
-    <row r="332" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>85</v>
       </c>
@@ -35413,7 +35414,7 @@
         <v>45840</v>
       </c>
     </row>
-    <row r="333" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>88</v>
       </c>
@@ -35514,7 +35515,7 @@
         <v>45841</v>
       </c>
     </row>
-    <row r="334" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B334">
         <v>1442793</v>
       </c>
@@ -35579,7 +35580,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="335" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B335">
         <v>657718</v>
       </c>
@@ -35644,7 +35645,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="336" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B336">
         <v>1649815</v>
       </c>
@@ -35709,7 +35710,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="337" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>61</v>
       </c>
@@ -35810,7 +35811,7 @@
         <v>45812</v>
       </c>
     </row>
-    <row r="338" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>63</v>
       </c>
@@ -35917,7 +35918,7 @@
         <v>45814</v>
       </c>
     </row>
-    <row r="339" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>63</v>
       </c>
@@ -36018,7 +36019,7 @@
         <v>45814</v>
       </c>
     </row>
-    <row r="340" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>78</v>
       </c>
@@ -36119,7 +36120,7 @@
         <v>45831</v>
       </c>
     </row>
-    <row r="341" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>87</v>
       </c>
@@ -36220,7 +36221,7 @@
         <v>45840</v>
       </c>
     </row>
-    <row r="342" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>87</v>
       </c>
@@ -36321,7 +36322,7 @@
         <v>45840</v>
       </c>
     </row>
-    <row r="343" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>85</v>
       </c>
@@ -36428,7 +36429,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="344" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>85</v>
       </c>
@@ -36529,7 +36530,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="345" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>84</v>
       </c>
@@ -36630,7 +36631,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="346" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>1</v>
       </c>
@@ -36719,7 +36720,7 @@
         <v>45841</v>
       </c>
     </row>
-    <row r="347" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1</v>
       </c>
@@ -36823,7 +36824,7 @@
         <v>43104</v>
       </c>
     </row>
-    <row r="348" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1</v>
       </c>
@@ -36921,7 +36922,7 @@
         <v>43194</v>
       </c>
     </row>
-    <row r="349" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1</v>
       </c>
@@ -37022,7 +37023,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="350" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1</v>
       </c>
@@ -37126,7 +37127,7 @@
         <v>43385</v>
       </c>
     </row>
-    <row r="351" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1</v>
       </c>
@@ -37224,7 +37225,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="352" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1</v>
       </c>
@@ -37322,7 +37323,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="353" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B353">
         <v>1371221</v>
       </c>
@@ -37387,7 +37388,7 @@
         <v>43563</v>
       </c>
     </row>
-    <row r="354" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>1</v>
       </c>
@@ -37497,7 +37498,7 @@
         <v>43945</v>
       </c>
     </row>
-    <row r="355" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>1</v>
       </c>
@@ -37613,7 +37614,7 @@
         <v>44036</v>
       </c>
     </row>
-    <row r="356" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B356">
         <v>1371221</v>
       </c>
@@ -37678,7 +37679,7 @@
         <v>44072</v>
       </c>
     </row>
-    <row r="357" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B357">
         <v>1371221</v>
       </c>
@@ -37743,7 +37744,7 @@
         <v>44072</v>
       </c>
     </row>
-    <row r="358" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B358">
         <v>1371221</v>
       </c>
@@ -37808,7 +37809,7 @@
         <v>44072</v>
       </c>
     </row>
-    <row r="359" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B359">
         <v>1371221</v>
       </c>
@@ -37873,7 +37874,7 @@
         <v>44072</v>
       </c>
     </row>
-    <row r="360" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B360">
         <v>1371221</v>
       </c>
@@ -37938,7 +37939,7 @@
         <v>44072</v>
       </c>
     </row>
-    <row r="361" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B361">
         <v>1371221</v>
       </c>
@@ -38003,7 +38004,7 @@
         <v>44072</v>
       </c>
     </row>
-    <row r="362" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B362">
         <v>1371221</v>
       </c>
@@ -38068,7 +38069,7 @@
         <v>44072</v>
       </c>
     </row>
-    <row r="363" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B363">
         <v>1371221</v>
       </c>
@@ -38133,7 +38134,7 @@
         <v>44072</v>
       </c>
     </row>
-    <row r="364" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B364">
         <v>1371221</v>
       </c>
@@ -38198,7 +38199,7 @@
         <v>44072</v>
       </c>
     </row>
-    <row r="365" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B365">
         <v>1371221</v>
       </c>
@@ -38263,7 +38264,7 @@
         <v>44072</v>
       </c>
     </row>
-    <row r="366" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B366">
         <v>1371221</v>
       </c>
@@ -38328,7 +38329,7 @@
         <v>44072</v>
       </c>
     </row>
-    <row r="367" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B367">
         <v>1371221</v>
       </c>
@@ -38393,7 +38394,7 @@
         <v>44072</v>
       </c>
     </row>
-    <row r="368" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1</v>
       </c>
@@ -38515,7 +38516,7 @@
         <v>44137</v>
       </c>
     </row>
-    <row r="369" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B369">
         <v>1371221</v>
       </c>
@@ -38580,7 +38581,7 @@
         <v>44146</v>
       </c>
     </row>
-    <row r="370" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B370">
         <v>1371221</v>
       </c>
@@ -38645,7 +38646,7 @@
         <v>44146</v>
       </c>
     </row>
-    <row r="371" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B371">
         <v>1371221</v>
       </c>
@@ -38710,7 +38711,7 @@
         <v>44146</v>
       </c>
     </row>
-    <row r="372" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B372">
         <v>1371221</v>
       </c>
@@ -38775,7 +38776,7 @@
         <v>44146</v>
       </c>
     </row>
-    <row r="373" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B373">
         <v>1371221</v>
       </c>
@@ -38840,7 +38841,7 @@
         <v>44146</v>
       </c>
     </row>
-    <row r="374" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B374">
         <v>1371221</v>
       </c>
@@ -38905,7 +38906,7 @@
         <v>44146</v>
       </c>
     </row>
-    <row r="375" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B375">
         <v>1371221</v>
       </c>
@@ -38970,7 +38971,7 @@
         <v>44146</v>
       </c>
     </row>
-    <row r="376" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B376">
         <v>1371221</v>
       </c>
@@ -39035,7 +39036,7 @@
         <v>44146</v>
       </c>
     </row>
-    <row r="377" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>1</v>
       </c>
@@ -39139,7 +39140,7 @@
         <v>44208</v>
       </c>
     </row>
-    <row r="378" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B378">
         <v>1371221</v>
       </c>
@@ -39204,7 +39205,7 @@
         <v>44210</v>
       </c>
     </row>
-    <row r="379" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B379">
         <v>1371221</v>
       </c>
@@ -39269,7 +39270,7 @@
         <v>44265</v>
       </c>
     </row>
-    <row r="380" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>1</v>
       </c>
@@ -39379,7 +39380,7 @@
         <v>44291</v>
       </c>
     </row>
-    <row r="381" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>1</v>
       </c>
@@ -39489,7 +39490,7 @@
         <v>44393</v>
       </c>
     </row>
-    <row r="382" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>1</v>
       </c>
@@ -39611,7 +39612,7 @@
         <v>44523</v>
       </c>
     </row>
-    <row r="383" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>1</v>
       </c>
@@ -39709,7 +39710,7 @@
         <v>44630</v>
       </c>
     </row>
-    <row r="384" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>1</v>
       </c>
@@ -39807,7 +39808,7 @@
         <v>44657</v>
       </c>
     </row>
-    <row r="385" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>1</v>
       </c>
@@ -39908,7 +39909,7 @@
         <v>44746</v>
       </c>
     </row>
-    <row r="386" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>1</v>
       </c>
@@ -40006,7 +40007,7 @@
         <v>44839</v>
       </c>
     </row>
-    <row r="387" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>1</v>
       </c>
@@ -40104,7 +40105,7 @@
         <v>44929</v>
       </c>
     </row>
-    <row r="388" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>1</v>
       </c>
@@ -40202,7 +40203,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="389" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1</v>
       </c>
@@ -40303,7 +40304,7 @@
         <v>45111</v>
       </c>
     </row>
-    <row r="390" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1</v>
       </c>
@@ -40401,7 +40402,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="391" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>1</v>
       </c>
@@ -40499,7 +40500,7 @@
         <v>45295</v>
       </c>
     </row>
-    <row r="392" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>1</v>
       </c>
@@ -40597,7 +40598,7 @@
         <v>45386</v>
       </c>
     </row>
-    <row r="393" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>1</v>
       </c>
@@ -40695,7 +40696,7 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="394" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>1</v>
       </c>
@@ -40793,7 +40794,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="395" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>1</v>
       </c>
@@ -40891,7 +40892,7 @@
         <v>45665</v>
       </c>
     </row>
-    <row r="396" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>1</v>
       </c>
@@ -40989,7 +40990,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="397" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>1</v>
       </c>
@@ -41087,7 +41088,7 @@
         <v>45841</v>
       </c>
     </row>
-    <row r="398" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B398">
         <v>1561240</v>
       </c>
@@ -41152,7 +41153,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="399" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B399">
         <v>1385699</v>
       </c>
@@ -41217,7 +41218,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="400" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B400">
         <v>1629110</v>
       </c>
@@ -41282,7 +41283,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="401" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B401">
         <v>2081867</v>
       </c>
@@ -41347,7 +41348,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="402" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B402">
         <v>1633873</v>
       </c>
@@ -41412,7 +41413,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="403" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B403">
         <v>1594728</v>
       </c>
@@ -41477,7 +41478,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="404" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>64</v>
       </c>
@@ -41578,7 +41579,7 @@
         <v>45818</v>
       </c>
     </row>
-    <row r="405" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>64</v>
       </c>
@@ -41679,7 +41680,7 @@
         <v>45818</v>
       </c>
     </row>
-    <row r="406" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>70</v>
       </c>
@@ -41780,7 +41781,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="407" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>67</v>
       </c>
@@ -41869,7 +41870,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="408" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>67</v>
       </c>
@@ -41970,7 +41971,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="409" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>66</v>
       </c>
@@ -42077,7 +42078,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="410" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B410">
         <v>957538</v>
       </c>
@@ -42142,7 +42143,7 @@
         <v>44873</v>
       </c>
     </row>
-    <row r="411" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B411">
         <v>957538</v>
       </c>
@@ -42207,7 +42208,7 @@
         <v>44873</v>
       </c>
     </row>
-    <row r="412" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B412">
         <v>957538</v>
       </c>
@@ -42272,7 +42273,7 @@
         <v>44873</v>
       </c>
     </row>
-    <row r="413" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B413">
         <v>957538</v>
       </c>
@@ -42337,7 +42338,7 @@
         <v>44873</v>
       </c>
     </row>
-    <row r="414" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B414">
         <v>957538</v>
       </c>
@@ -42402,7 +42403,7 @@
         <v>44873</v>
       </c>
     </row>
-    <row r="415" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>72</v>
       </c>
@@ -42503,7 +42504,7 @@
         <v>44909</v>
       </c>
     </row>
-    <row r="416" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>72</v>
       </c>
@@ -42604,7 +42605,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="417" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>72</v>
       </c>
@@ -42711,7 +42712,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="418" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>72</v>
       </c>
@@ -42812,7 +42813,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="419" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>72</v>
       </c>
@@ -42913,7 +42914,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="420" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>72</v>
       </c>
@@ -43014,7 +43015,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row r="421" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>72</v>
       </c>
@@ -43115,7 +43116,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="422" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>72</v>
       </c>
@@ -43216,7 +43217,7 @@
         <v>45552</v>
       </c>
     </row>
-    <row r="423" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>72</v>
       </c>
@@ -43317,7 +43318,7 @@
         <v>45639</v>
       </c>
     </row>
-    <row r="424" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>72</v>
       </c>
@@ -43418,7 +43419,7 @@
         <v>45735</v>
       </c>
     </row>
-    <row r="425" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>72</v>
       </c>
@@ -43522,7 +43523,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="426" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B426">
         <v>957538</v>
       </c>
@@ -43587,7 +43588,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="427" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B427">
         <v>957538</v>
       </c>
@@ -43652,7 +43653,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="428" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B428">
         <v>957538</v>
       </c>
@@ -43717,7 +43718,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="429" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B429">
         <v>957538</v>
       </c>
@@ -43782,7 +43783,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="430" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B430">
         <v>957538</v>
       </c>
@@ -43847,7 +43848,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="431" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B431">
         <v>957538</v>
       </c>
@@ -43912,7 +43913,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="432" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B432">
         <v>957538</v>
       </c>
@@ -43977,7 +43978,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="433" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B433">
         <v>957538</v>
       </c>
@@ -44042,7 +44043,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="434" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B434">
         <v>957538</v>
       </c>
@@ -44107,7 +44108,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="435" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B435">
         <v>957538</v>
       </c>
@@ -44172,7 +44173,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="436" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B436">
         <v>957538</v>
       </c>
@@ -44237,7 +44238,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="437" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>72</v>
       </c>
@@ -44350,7 +44351,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="438" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>72</v>
       </c>
@@ -44475,7 +44476,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="439" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>72</v>
       </c>
@@ -44588,7 +44589,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="440" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B440">
         <v>957542</v>
       </c>
@@ -44653,7 +44654,7 @@
         <v>45300</v>
       </c>
     </row>
-    <row r="441" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B441">
         <v>957542</v>
       </c>
@@ -44721,7 +44722,7 @@
         <v>45335</v>
       </c>
     </row>
-    <row r="442" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>72</v>
       </c>
@@ -44825,7 +44826,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row r="443" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B443">
         <v>957542</v>
       </c>
@@ -44890,7 +44891,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row r="444" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>72</v>
       </c>
@@ -44994,7 +44995,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="445" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>72</v>
       </c>
@@ -45095,7 +45096,7 @@
         <v>45552</v>
       </c>
     </row>
-    <row r="446" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>72</v>
       </c>
@@ -45196,7 +45197,7 @@
         <v>45639</v>
       </c>
     </row>
-    <row r="447" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>72</v>
       </c>
@@ -45297,7 +45298,7 @@
         <v>45735</v>
       </c>
     </row>
-    <row r="448" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>72</v>
       </c>
@@ -45398,7 +45399,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="449" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B449">
         <v>957542</v>
       </c>
@@ -45463,7 +45464,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="450" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B450">
         <v>957542</v>
       </c>
@@ -45528,7 +45529,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="451" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B451">
         <v>957542</v>
       </c>
@@ -45593,7 +45594,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="452" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B452">
         <v>957542</v>
       </c>
@@ -45658,7 +45659,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="453" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B453">
         <v>957542</v>
       </c>
@@ -45723,7 +45724,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="454" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B454">
         <v>957542</v>
       </c>
@@ -45788,7 +45789,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="455" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B455">
         <v>957542</v>
       </c>
@@ -45853,7 +45854,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="456" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B456">
         <v>957542</v>
       </c>
@@ -45918,7 +45919,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="457" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B457">
         <v>957542</v>
       </c>
@@ -45983,7 +45984,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="458" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>76</v>
       </c>
@@ -46084,7 +46085,7 @@
         <v>45828</v>
       </c>
     </row>
-    <row r="459" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>78</v>
       </c>
@@ -46185,7 +46186,7 @@
         <v>45831</v>
       </c>
     </row>
-    <row r="460" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>76</v>
       </c>
@@ -46286,7 +46287,7 @@
         <v>45828</v>
       </c>
     </row>
-    <row r="461" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>79</v>
       </c>
@@ -46387,7 +46388,7 @@
         <v>45832</v>
       </c>
     </row>
-    <row r="462" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>79</v>
       </c>
@@ -46488,7 +46489,7 @@
         <v>45832</v>
       </c>
     </row>
-    <row r="463" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>82</v>
       </c>
@@ -46589,7 +46590,7 @@
         <v>45834</v>
       </c>
     </row>
-    <row r="464" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>85</v>
       </c>
@@ -46690,7 +46691,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="465" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>85</v>
       </c>
@@ -46791,7 +46792,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="466" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>85</v>
       </c>
@@ -46892,7 +46893,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="467" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>88</v>
       </c>
@@ -46990,7 +46991,7 @@
         <v>45840</v>
       </c>
     </row>
-    <row r="468" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>97</v>
       </c>
@@ -47079,7 +47080,7 @@
         <v>43321</v>
       </c>
     </row>
-    <row r="469" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>97</v>
       </c>
@@ -47168,7 +47169,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="470" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>97</v>
       </c>
@@ -47257,7 +47258,7 @@
         <v>44102</v>
       </c>
     </row>
-    <row r="471" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>97</v>
       </c>
@@ -47346,7 +47347,7 @@
         <v>44529</v>
       </c>
     </row>
-    <row r="472" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>97</v>
       </c>
@@ -47435,7 +47436,7 @@
         <v>44734</v>
       </c>
     </row>
-    <row r="473" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>97</v>
       </c>
@@ -47524,7 +47525,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="474" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>97</v>
       </c>
@@ -47613,7 +47614,7 @@
         <v>45653</v>
       </c>
     </row>
-    <row r="475" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B475">
         <v>8782631</v>
       </c>
@@ -47678,7 +47679,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="476" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B476">
         <v>8782631</v>
       </c>
@@ -47743,7 +47744,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="477" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B477">
         <v>8782631</v>
       </c>
@@ -47808,7 +47809,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="478" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B478">
         <v>8782631</v>
       </c>
@@ -47873,7 +47874,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="479" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B479">
         <v>8782631</v>
       </c>
@@ -47938,7 +47939,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="480" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B480">
         <v>8782631</v>
       </c>
@@ -48003,7 +48004,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="481" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B481">
         <v>8782631</v>
       </c>
@@ -48068,7 +48069,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="482" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B482">
         <v>8782631</v>
       </c>
@@ -48133,7 +48134,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="483" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B483">
         <v>8782631</v>
       </c>
@@ -48198,7 +48199,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="484" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B484">
         <v>8782631</v>
       </c>
@@ -48263,7 +48264,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="485" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B485">
         <v>8782631</v>
       </c>
@@ -48328,7 +48329,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="486" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B486">
         <v>8782631</v>
       </c>
@@ -48393,7 +48394,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="487" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B487">
         <v>8782631</v>
       </c>
@@ -48458,7 +48459,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="488" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B488">
         <v>8782631</v>
       </c>
@@ -48523,7 +48524,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="489" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>7</v>
       </c>
@@ -48630,7 +48631,7 @@
         <v>45399</v>
       </c>
     </row>
-    <row r="490" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>7</v>
       </c>
@@ -48737,7 +48738,7 @@
         <v>45485</v>
       </c>
     </row>
-    <row r="491" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>7</v>
       </c>
@@ -48844,7 +48845,7 @@
         <v>45576</v>
       </c>
     </row>
-    <row r="492" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>7</v>
       </c>
@@ -48951,7 +48952,7 @@
         <v>45673</v>
       </c>
     </row>
-    <row r="493" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>7</v>
       </c>
@@ -49058,7 +49059,7 @@
         <v>45758</v>
       </c>
     </row>
-    <row r="494" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>58</v>
       </c>
@@ -49159,7 +49160,7 @@
         <v>45812</v>
       </c>
     </row>
-    <row r="495" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>58</v>
       </c>
@@ -49248,7 +49249,7 @@
         <v>45812</v>
       </c>
     </row>
-    <row r="496" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>73</v>
       </c>
@@ -49349,7 +49350,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="497" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>73</v>
       </c>
@@ -49450,7 +49451,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="498" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>73</v>
       </c>
@@ -49557,7 +49558,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="499" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>73</v>
       </c>
@@ -49658,7 +49659,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="500" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>69</v>
       </c>
@@ -49759,7 +49760,7 @@
         <v>45821</v>
       </c>
     </row>
-    <row r="501" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>69</v>
       </c>
@@ -49860,7 +49861,7 @@
         <v>45821</v>
       </c>
     </row>
-    <row r="502" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>78</v>
       </c>
@@ -49961,7 +49962,7 @@
         <v>45833</v>
       </c>
     </row>
-    <row r="503" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>85</v>
       </c>
@@ -50059,7 +50060,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="504" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>87</v>
       </c>
@@ -50157,7 +50158,7 @@
         <v>45839</v>
       </c>
     </row>
-    <row r="505" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>87</v>
       </c>
@@ -50255,7 +50256,7 @@
         <v>45839</v>
       </c>
     </row>
-    <row r="506" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>87</v>
       </c>
@@ -50353,7 +50354,7 @@
         <v>45839</v>
       </c>
     </row>
-    <row r="507" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B507">
         <v>1666284</v>
       </c>
@@ -50418,7 +50419,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="508" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B508">
         <v>2086617</v>
       </c>
@@ -50483,7 +50484,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="509" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B509">
         <v>601000</v>
       </c>
@@ -50548,7 +50549,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="510" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B510">
         <v>1265673</v>
       </c>
@@ -50613,7 +50614,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="511" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B511">
         <v>1265674</v>
       </c>
@@ -50678,7 +50679,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="512" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B512">
         <v>1674360</v>
       </c>
@@ -50743,7 +50744,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="513" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B513">
         <v>1674360</v>
       </c>
@@ -50808,7 +50809,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="514" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B514">
         <v>1674360</v>
       </c>
@@ -50873,7 +50874,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="515" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B515">
         <v>1674360</v>
       </c>
@@ -50938,7 +50939,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="516" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B516">
         <v>1674360</v>
       </c>
@@ -51003,7 +51004,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="517" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B517">
         <v>1674360</v>
       </c>
@@ -51068,7 +51069,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="518" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B518">
         <v>1674360</v>
       </c>
@@ -51133,7 +51134,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="519" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B519">
         <v>1674360</v>
       </c>
@@ -51198,7 +51199,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="520" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B520">
         <v>1674360</v>
       </c>
@@ -51263,7 +51264,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="521" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B521">
         <v>1674360</v>
       </c>
@@ -51328,7 +51329,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="522" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B522">
         <v>1674360</v>
       </c>
@@ -51393,7 +51394,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="523" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B523">
         <v>1674360</v>
       </c>
@@ -51458,7 +51459,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="524" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B524">
         <v>1674360</v>
       </c>
@@ -51523,7 +51524,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="525" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B525">
         <v>1674360</v>
       </c>
@@ -51588,7 +51589,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="526" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B526">
         <v>1674360</v>
       </c>
@@ -51653,7 +51654,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="527" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B527">
         <v>1674360</v>
       </c>
@@ -51718,7 +51719,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="528" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B528">
         <v>1674360</v>
       </c>
@@ -51783,7 +51784,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="529" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B529">
         <v>1674360</v>
       </c>
@@ -51848,7 +51849,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="530" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B530">
         <v>1674360</v>
       </c>
@@ -51913,7 +51914,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="531" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B531">
         <v>1674360</v>
       </c>
@@ -51978,7 +51979,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="532" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B532">
         <v>1674360</v>
       </c>
@@ -52043,7 +52044,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="533" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B533">
         <v>1674360</v>
       </c>
@@ -52108,7 +52109,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="534" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B534">
         <v>1674360</v>
       </c>
@@ -52173,7 +52174,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="535" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B535">
         <v>1674360</v>
       </c>
@@ -52238,7 +52239,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="536" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B536">
         <v>1674360</v>
       </c>
@@ -52303,7 +52304,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="537" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B537">
         <v>1674360</v>
       </c>
@@ -52368,7 +52369,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="538" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B538">
         <v>1674360</v>
       </c>
@@ -52433,7 +52434,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="539" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B539">
         <v>1674360</v>
       </c>
@@ -52498,7 +52499,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="540" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B540">
         <v>1674360</v>
       </c>
@@ -52563,7 +52564,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="541" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B541">
         <v>1674360</v>
       </c>
@@ -52628,7 +52629,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="542" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B542">
         <v>1674360</v>
       </c>
@@ -52693,7 +52694,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="543" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B543">
         <v>1674360</v>
       </c>
@@ -52758,7 +52759,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="544" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B544">
         <v>1674360</v>
       </c>
@@ -52823,7 +52824,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="545" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B545">
         <v>1674360</v>
       </c>
@@ -52888,7 +52889,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="546" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B546">
         <v>1674360</v>
       </c>
@@ -52953,7 +52954,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="547" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B547">
         <v>1674360</v>
       </c>
@@ -53018,7 +53019,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="548" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B548">
         <v>1674360</v>
       </c>
@@ -53083,7 +53084,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="549" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B549">
         <v>1674360</v>
       </c>
@@ -53148,7 +53149,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="550" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B550">
         <v>1674360</v>
       </c>
@@ -53213,7 +53214,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="551" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B551">
         <v>1674360</v>
       </c>
@@ -53278,7 +53279,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="552" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B552">
         <v>1674360</v>
       </c>
@@ -53343,7 +53344,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="553" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B553">
         <v>1674360</v>
       </c>
@@ -53408,7 +53409,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="554" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B554">
         <v>1674360</v>
       </c>
@@ -53473,7 +53474,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="555" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B555">
         <v>1674360</v>
       </c>
@@ -53538,7 +53539,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="556" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B556">
         <v>1674360</v>
       </c>
@@ -53603,7 +53604,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="557" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B557">
         <v>1674360</v>
       </c>
@@ -53668,7 +53669,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="558" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B558">
         <v>1674360</v>
       </c>
@@ -53733,7 +53734,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="559" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B559">
         <v>1674360</v>
       </c>
@@ -53798,7 +53799,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="560" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B560">
         <v>1674360</v>
       </c>
@@ -53863,7 +53864,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="561" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B561">
         <v>1674360</v>
       </c>
@@ -53928,7 +53929,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="562" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B562">
         <v>1674360</v>
       </c>
@@ -53993,7 +53994,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="563" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B563">
         <v>1674360</v>
       </c>
@@ -54058,7 +54059,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="564" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B564">
         <v>1674360</v>
       </c>
@@ -54123,7 +54124,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="565" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B565">
         <v>1674360</v>
       </c>
@@ -54188,7 +54189,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="566" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B566">
         <v>1674360</v>
       </c>
@@ -54253,7 +54254,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="567" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B567">
         <v>1674360</v>
       </c>
@@ -54318,7 +54319,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="568" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B568">
         <v>1674360</v>
       </c>
@@ -54383,7 +54384,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="569" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B569">
         <v>1674360</v>
       </c>
@@ -54448,7 +54449,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="570" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B570">
         <v>1674360</v>
       </c>
@@ -54513,7 +54514,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="571" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B571">
         <v>1674360</v>
       </c>
@@ -54578,7 +54579,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="572" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B572">
         <v>1674360</v>
       </c>
@@ -54643,7 +54644,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="573" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B573">
         <v>1674360</v>
       </c>
@@ -54708,7 +54709,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="574" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B574">
         <v>1674360</v>
       </c>
@@ -54773,7 +54774,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="575" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B575">
         <v>1547008</v>
       </c>
@@ -54838,7 +54839,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="576" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B576">
         <v>67101</v>
       </c>
@@ -54903,7 +54904,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="577" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B577">
         <v>67103</v>
       </c>
@@ -54968,7 +54969,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="578" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B578">
         <v>1038185</v>
       </c>
@@ -55033,7 +55034,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="579" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B579">
         <v>74374</v>
       </c>
@@ -55098,7 +55099,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="580" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>63</v>
       </c>
@@ -55205,7 +55206,7 @@
         <v>45814</v>
       </c>
     </row>
-    <row r="581" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>58</v>
       </c>
@@ -55306,7 +55307,7 @@
         <v>45812</v>
       </c>
     </row>
-    <row r="582" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>70</v>
       </c>
@@ -55407,7 +55408,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="583" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>79</v>
       </c>
@@ -55514,7 +55515,7 @@
         <v>45834</v>
       </c>
     </row>
-    <row r="584" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>81</v>
       </c>
@@ -55615,7 +55616,7 @@
         <v>45835</v>
       </c>
     </row>
-    <row r="585" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>81</v>
       </c>
@@ -55722,7 +55723,7 @@
         <v>45835</v>
       </c>
     </row>
-    <row r="586" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>79</v>
       </c>
@@ -55847,7 +55848,7 @@
         <v>45834</v>
       </c>
     </row>
-    <row r="587" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>79</v>
       </c>
@@ -55948,7 +55949,7 @@
         <v>45834</v>
       </c>
     </row>
-    <row r="588" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>73</v>
       </c>
@@ -56061,7 +56062,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="589" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>87</v>
       </c>
@@ -56168,7 +56169,7 @@
         <v>45840</v>
       </c>
     </row>
-    <row r="590" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>87</v>
       </c>
@@ -56269,7 +56270,7 @@
         <v>45840</v>
       </c>
     </row>
-    <row r="591" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>87</v>
       </c>
@@ -56370,7 +56371,7 @@
         <v>45840</v>
       </c>
     </row>
-    <row r="592" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>84</v>
       </c>
@@ -56471,7 +56472,7 @@
         <v>45839</v>
       </c>
     </row>
-    <row r="593" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>82</v>
       </c>
@@ -56569,7 +56570,7 @@
         <v>45835</v>
       </c>
     </row>
-    <row r="594" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>79</v>
       </c>
@@ -56667,7 +56668,7 @@
         <v>45833</v>
       </c>
     </row>
-    <row r="595" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>79</v>
       </c>
@@ -56765,7 +56766,7 @@
         <v>45833</v>
       </c>
     </row>
-    <row r="596" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>88</v>
       </c>
@@ -56866,7 +56867,7 @@
         <v>45841</v>
       </c>
     </row>
-    <row r="597" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>87</v>
       </c>
@@ -56973,7 +56974,7 @@
         <v>45840</v>
       </c>
     </row>
-    <row r="598" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>87</v>
       </c>
@@ -57074,7 +57075,7 @@
         <v>45840</v>
       </c>
     </row>
-    <row r="599" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>85</v>
       </c>
@@ -57181,7 +57182,7 @@
         <v>45840</v>
       </c>
     </row>
-    <row r="600" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>85</v>
       </c>
@@ -57288,7 +57289,7 @@
         <v>45840</v>
       </c>
     </row>
-    <row r="601" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>84</v>
       </c>
@@ -57377,7 +57378,7 @@
         <v>45839</v>
       </c>
     </row>
-    <row r="602" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>82</v>
       </c>
@@ -57478,7 +57479,7 @@
         <v>45835</v>
       </c>
     </row>
-    <row r="603" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B603">
         <v>2050738</v>
       </c>
@@ -57543,7 +57544,7 @@
         <v>41137</v>
       </c>
     </row>
-    <row r="604" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B604">
         <v>2050738</v>
       </c>
@@ -57608,7 +57609,7 @@
         <v>41137</v>
       </c>
     </row>
-    <row r="605" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B605">
         <v>2050738</v>
       </c>
@@ -57673,7 +57674,7 @@
         <v>41137</v>
       </c>
     </row>
-    <row r="606" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>16</v>
       </c>
@@ -57777,7 +57778,7 @@
         <v>41219</v>
       </c>
     </row>
-    <row r="607" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>16</v>
       </c>
@@ -57881,7 +57882,7 @@
         <v>41311</v>
       </c>
     </row>
-    <row r="608" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>16</v>
       </c>
@@ -57985,7 +57986,7 @@
         <v>41407</v>
       </c>
     </row>
-    <row r="609" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>16</v>
       </c>
@@ -58089,7 +58090,7 @@
         <v>41495</v>
       </c>
     </row>
-    <row r="610" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>16</v>
       </c>
@@ -58193,7 +58194,7 @@
         <v>41592</v>
       </c>
     </row>
-    <row r="611" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>16</v>
       </c>
@@ -58297,7 +58298,7 @@
         <v>41687</v>
       </c>
     </row>
-    <row r="612" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>16</v>
       </c>
@@ -58398,7 +58399,7 @@
         <v>42054</v>
       </c>
     </row>
-    <row r="613" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>12</v>
       </c>
@@ -58499,7 +58500,7 @@
         <v>42313</v>
       </c>
     </row>
-    <row r="614" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>12</v>
       </c>
@@ -58600,7 +58601,7 @@
         <v>42486</v>
       </c>
     </row>
-    <row r="615" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>12</v>
       </c>
@@ -58701,7 +58702,7 @@
         <v>42587</v>
       </c>
     </row>
-    <row r="616" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>12</v>
       </c>
@@ -58802,7 +58803,7 @@
         <v>42662</v>
       </c>
     </row>
-    <row r="617" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>12</v>
       </c>
@@ -58903,7 +58904,7 @@
         <v>42753</v>
       </c>
     </row>
-    <row r="618" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>12</v>
       </c>
@@ -59004,7 +59005,7 @@
         <v>42844</v>
       </c>
     </row>
-    <row r="619" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>12</v>
       </c>
@@ -59105,7 +59106,7 @@
         <v>42940</v>
       </c>
     </row>
-    <row r="620" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>12</v>
       </c>
@@ -59206,7 +59207,7 @@
         <v>43032</v>
       </c>
     </row>
-    <row r="621" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>12</v>
       </c>
@@ -59307,7 +59308,7 @@
         <v>43117</v>
       </c>
     </row>
-    <row r="622" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>12</v>
       </c>
@@ -59408,7 +59409,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="623" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>12</v>
       </c>
@@ -59509,7 +59510,7 @@
         <v>43298</v>
       </c>
     </row>
-    <row r="624" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>12</v>
       </c>
@@ -59610,7 +59611,7 @@
         <v>43402</v>
       </c>
     </row>
-    <row r="625" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>12</v>
       </c>
@@ -59711,7 +59712,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="626" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>12</v>
       </c>
@@ -59812,7 +59813,7 @@
         <v>43571</v>
       </c>
     </row>
-    <row r="627" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>12</v>
       </c>
@@ -59913,7 +59914,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="628" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>12</v>
       </c>
@@ -60014,7 +60015,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="629" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>12</v>
       </c>
@@ -60115,7 +60116,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="630" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>12</v>
       </c>
@@ -60216,7 +60217,7 @@
         <v>43958</v>
       </c>
     </row>
-    <row r="631" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>12</v>
       </c>
@@ -60317,7 +60318,7 @@
         <v>44055</v>
       </c>
     </row>
-    <row r="632" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>12</v>
       </c>
@@ -60421,7 +60422,7 @@
         <v>44151</v>
       </c>
     </row>
-    <row r="633" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>12</v>
       </c>
@@ -60522,7 +60523,7 @@
         <v>44218</v>
       </c>
     </row>
-    <row r="634" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>12</v>
       </c>
@@ -60623,7 +60624,7 @@
         <v>44302</v>
       </c>
     </row>
-    <row r="635" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>12</v>
       </c>
@@ -60724,7 +60725,7 @@
         <v>44398</v>
       </c>
     </row>
-    <row r="636" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>12</v>
       </c>
@@ -60825,7 +60826,7 @@
         <v>44530</v>
       </c>
     </row>
-    <row r="637" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>12</v>
       </c>
@@ -60926,7 +60927,7 @@
         <v>44589</v>
       </c>
     </row>
-    <row r="638" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>15</v>
       </c>
@@ -61027,7 +61028,7 @@
         <v>44670</v>
       </c>
     </row>
-    <row r="639" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>15</v>
       </c>
@@ -61128,7 +61129,7 @@
         <v>44761</v>
       </c>
     </row>
-    <row r="640" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>15</v>
       </c>
@@ -61229,7 +61230,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="641" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>15</v>
       </c>
@@ -61330,7 +61331,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="642" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>15</v>
       </c>
@@ -61431,7 +61432,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="643" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>15</v>
       </c>
@@ -61532,7 +61533,7 @@
         <v>45126</v>
       </c>
     </row>
-    <row r="644" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>15</v>
       </c>
@@ -61633,7 +61634,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="645" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>15</v>
       </c>
@@ -61734,7 +61735,7 @@
         <v>45313</v>
       </c>
     </row>
-    <row r="646" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>15</v>
       </c>
@@ -61835,7 +61836,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="647" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>15</v>
       </c>
@@ -61936,7 +61937,7 @@
         <v>45491</v>
       </c>
     </row>
-    <row r="648" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>15</v>
       </c>
@@ -62037,7 +62038,7 @@
         <v>45583</v>
       </c>
     </row>
-    <row r="649" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>15</v>
       </c>
@@ -62138,7 +62139,7 @@
         <v>45679</v>
       </c>
     </row>
-    <row r="650" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>82</v>
       </c>
@@ -62239,7 +62240,7 @@
         <v>45835</v>
       </c>
     </row>
-    <row r="651" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>84</v>
       </c>
@@ -62340,7 +62341,7 @@
         <v>45839</v>
       </c>
     </row>
-    <row r="652" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>84</v>
       </c>
@@ -62447,7 +62448,7 @@
         <v>45839</v>
       </c>
     </row>
-    <row r="653" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>84</v>
       </c>
@@ -62536,7 +62537,7 @@
         <v>45839</v>
       </c>
     </row>
-    <row r="654" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>78</v>
       </c>
@@ -62661,7 +62662,7 @@
         <v>45832</v>
       </c>
     </row>
-    <row r="655" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>78</v>
       </c>
@@ -62762,7 +62763,7 @@
         <v>45832</v>
       </c>
     </row>
-    <row r="656" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>78</v>
       </c>
@@ -62863,7 +62864,7 @@
         <v>45832</v>
       </c>
     </row>
-    <row r="657" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>78</v>
       </c>
@@ -62964,7 +62965,7 @@
         <v>45832</v>
       </c>
     </row>
-    <row r="658" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>78</v>
       </c>
@@ -63065,7 +63066,7 @@
         <v>45832</v>
       </c>
     </row>
-    <row r="659" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B659">
         <v>195765</v>
       </c>
@@ -63130,7 +63131,7 @@
         <v>45821</v>
       </c>
     </row>
-    <row r="660" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>78</v>
       </c>
@@ -63231,7 +63232,7 @@
         <v>45832</v>
       </c>
     </row>
-    <row r="661" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>79</v>
       </c>
@@ -63344,7 +63345,7 @@
         <v>45833</v>
       </c>
     </row>
-    <row r="662" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>79</v>
       </c>
@@ -63433,7 +63434,7 @@
         <v>45833</v>
       </c>
     </row>
-    <row r="663" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>79</v>
       </c>
@@ -63534,7 +63535,7 @@
         <v>45833</v>
       </c>
     </row>
-    <row r="664" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>79</v>
       </c>
@@ -63635,7 +63636,7 @@
         <v>45833</v>
       </c>
     </row>
-    <row r="665" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>79</v>
       </c>
@@ -63736,7 +63737,7 @@
         <v>45833</v>
       </c>
     </row>
-    <row r="666" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>79</v>
       </c>
@@ -63843,7 +63844,7 @@
         <v>45833</v>
       </c>
     </row>
-    <row r="667" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>76</v>
       </c>
@@ -63944,7 +63945,7 @@
         <v>45831</v>
       </c>
     </row>
-    <row r="668" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>76</v>
       </c>
@@ -64045,7 +64046,7 @@
         <v>45831</v>
       </c>
     </row>
-    <row r="669" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>70</v>
       </c>
@@ -64146,7 +64147,7 @@
         <v>45826</v>
       </c>
     </row>
-    <row r="670" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>64</v>
       </c>
@@ -64235,7 +64236,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="671" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>64</v>
       </c>
@@ -64336,7 +64337,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="672" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>66</v>
       </c>
@@ -64437,7 +64438,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="673" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>64</v>
       </c>
@@ -64538,7 +64539,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="674" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>63</v>
       </c>
@@ -64639,7 +64640,7 @@
         <v>45814</v>
       </c>
     </row>
-    <row r="675" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>66</v>
       </c>
@@ -64746,7 +64747,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="676" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>66</v>
       </c>
@@ -64847,7 +64848,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="677" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B677">
         <v>2135872</v>
       </c>
@@ -64912,7 +64913,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="678" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B678">
         <v>2168598</v>
       </c>
@@ -64981,7 +64982,13 @@
       <c r="AO681" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ678" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AQ678" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="271146"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -64995,6 +65002,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Έγγραφο" ma:contentTypeID="0x01010098545D290BE0734BA8B6C299E7534FBA" ma:contentTypeVersion="16" ma:contentTypeDescription="Δημιουργία νέου εγγράφου" ma:contentTypeScope="" ma:versionID="1115902cd30e7a4632b441f1c694ae99">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e2e773af-3e16-4636-9824-83afac0d94b9" xmlns:ns4="61143ee6-6e73-4235-8b48-cdabdd8f5d93" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2ad643e4c16ba55e677170d252372de3" ns3:_="" ns4:_="">
     <xsd:import namespace="e2e773af-3e16-4636-9824-83afac0d94b9"/>
@@ -65233,15 +65249,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED879408-AD3C-41BE-851F-1F6F069468F2}">
   <ds:schemaRefs>
@@ -65260,6 +65267,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DD4BEB4-5E53-4645-BC6E-46A0E3F572BC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9750033F-3FD0-4E94-A710-E3287F42DD87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -65276,12 +65291,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DD4BEB4-5E53-4645-BC6E-46A0E3F572BC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/input/eurobank/202507.xlsx
+++ b/data/input/eurobank/202507.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cervedgroup-my.sharepoint.com/personal/alexis_milionis_cerved_com/Documents/codebase/Utilities/streamlit/data/input/eurobank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_0859CCC9FD8FF084C13C18461B00AF345D600D05" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB2B4560-4A51-4799-8C4B-A81677B1018E}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_0859CCC9FD8FF084C13C18461B00AF345D600D05" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0C1F718-D6C1-4EBE-AC96-8D4666BBD906}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -4937,10 +4937,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AQ681"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
@@ -11014,7 +11013,7 @@
         <v>45779</v>
       </c>
     </row>
-    <row r="61" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>1530289</v>
       </c>
@@ -11079,7 +11078,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="62" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>1394023</v>
       </c>
@@ -11144,7 +11143,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="63" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>1394024</v>
       </c>
@@ -11209,7 +11208,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="64" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>289233</v>
       </c>
@@ -11274,7 +11273,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="65" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>66</v>
       </c>
@@ -11375,7 +11374,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="66" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>66</v>
       </c>
@@ -11476,7 +11475,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="67" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>61</v>
       </c>
@@ -11580,7 +11579,7 @@
         <v>40343</v>
       </c>
     </row>
-    <row r="68" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>61</v>
       </c>
@@ -11684,7 +11683,7 @@
         <v>40438</v>
       </c>
     </row>
-    <row r="69" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>61</v>
       </c>
@@ -11788,7 +11787,7 @@
         <v>40526</v>
       </c>
     </row>
-    <row r="70" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>61</v>
       </c>
@@ -11892,7 +11891,7 @@
         <v>40617</v>
       </c>
     </row>
-    <row r="71" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>61</v>
       </c>
@@ -11996,7 +11995,7 @@
         <v>40703</v>
       </c>
     </row>
-    <row r="72" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>61</v>
       </c>
@@ -12100,7 +12099,7 @@
         <v>40795</v>
       </c>
     </row>
-    <row r="73" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>61</v>
       </c>
@@ -12204,7 +12203,7 @@
         <v>40886</v>
       </c>
     </row>
-    <row r="74" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>61</v>
       </c>
@@ -12308,7 +12307,7 @@
         <v>40977</v>
       </c>
     </row>
-    <row r="75" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>61</v>
       </c>
@@ -12412,7 +12411,7 @@
         <v>41068</v>
       </c>
     </row>
-    <row r="76" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>61</v>
       </c>
@@ -12516,7 +12515,7 @@
         <v>41165</v>
       </c>
     </row>
-    <row r="77" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>61</v>
       </c>
@@ -12620,7 +12619,7 @@
         <v>41255</v>
       </c>
     </row>
-    <row r="78" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>61</v>
       </c>
@@ -12724,7 +12723,7 @@
         <v>41365</v>
       </c>
     </row>
-    <row r="79" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>61</v>
       </c>
@@ -12828,7 +12827,7 @@
         <v>41445</v>
       </c>
     </row>
-    <row r="80" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>61</v>
       </c>
@@ -12932,7 +12931,7 @@
         <v>41548</v>
       </c>
     </row>
-    <row r="81" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>61</v>
       </c>
@@ -13036,7 +13035,7 @@
         <v>41638</v>
       </c>
     </row>
-    <row r="82" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>61</v>
       </c>
@@ -13140,7 +13139,7 @@
         <v>41726</v>
       </c>
     </row>
-    <row r="83" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>61</v>
       </c>
@@ -13244,7 +13243,7 @@
         <v>41813</v>
       </c>
     </row>
-    <row r="84" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>61</v>
       </c>
@@ -13348,7 +13347,7 @@
         <v>41904</v>
       </c>
     </row>
-    <row r="85" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>61</v>
       </c>
@@ -13452,7 +13451,7 @@
         <v>41996</v>
       </c>
     </row>
-    <row r="86" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>61</v>
       </c>
@@ -13553,7 +13552,7 @@
         <v>42109</v>
       </c>
     </row>
-    <row r="87" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>61</v>
       </c>
@@ -13654,7 +13653,7 @@
         <v>42188</v>
       </c>
     </row>
-    <row r="88" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>61</v>
       </c>
@@ -13755,7 +13754,7 @@
         <v>42276</v>
       </c>
     </row>
-    <row r="89" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>61</v>
       </c>
@@ -13856,7 +13855,7 @@
         <v>42359</v>
       </c>
     </row>
-    <row r="90" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>61</v>
       </c>
@@ -13957,7 +13956,7 @@
         <v>42447</v>
       </c>
     </row>
-    <row r="91" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>61</v>
       </c>
@@ -14058,7 +14057,7 @@
         <v>42538</v>
       </c>
     </row>
-    <row r="92" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>61</v>
       </c>
@@ -14159,7 +14158,7 @@
         <v>42625</v>
       </c>
     </row>
-    <row r="93" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>61</v>
       </c>
@@ -14260,7 +14259,7 @@
         <v>42709</v>
       </c>
     </row>
-    <row r="94" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>61</v>
       </c>
@@ -14361,7 +14360,7 @@
         <v>42811</v>
       </c>
     </row>
-    <row r="95" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>61</v>
       </c>
@@ -14462,7 +14461,7 @@
         <v>42901</v>
       </c>
     </row>
-    <row r="96" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>61</v>
       </c>
@@ -14563,7 +14562,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="97" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>61</v>
       </c>
@@ -14664,7 +14663,7 @@
         <v>43074</v>
       </c>
     </row>
-    <row r="98" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>61</v>
       </c>
@@ -14765,7 +14764,7 @@
         <v>43164</v>
       </c>
     </row>
-    <row r="99" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>61</v>
       </c>
@@ -14866,7 +14865,7 @@
         <v>43263</v>
       </c>
     </row>
-    <row r="100" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>70</v>
       </c>
@@ -14967,7 +14966,7 @@
         <v>43369</v>
       </c>
     </row>
-    <row r="101" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>70</v>
       </c>
@@ -15071,7 +15070,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="102" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>70</v>
       </c>
@@ -15172,7 +15171,7 @@
         <v>43543</v>
       </c>
     </row>
-    <row r="103" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>70</v>
       </c>
@@ -15273,7 +15272,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="104" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>70</v>
       </c>
@@ -15374,7 +15373,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="105" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>72</v>
       </c>
@@ -15475,7 +15474,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="106" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>72</v>
       </c>
@@ -15582,7 +15581,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="107" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>72</v>
       </c>
@@ -15683,7 +15682,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="108" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>72</v>
       </c>
@@ -15790,7 +15789,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="109" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>72</v>
       </c>
@@ -15891,7 +15890,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="110" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>72</v>
       </c>
@@ -15998,7 +15997,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="111" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>72</v>
       </c>
@@ -16099,7 +16098,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="112" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>72</v>
       </c>
@@ -16200,7 +16199,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="113" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>72</v>
       </c>
@@ -16301,7 +16300,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="114" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>72</v>
       </c>
@@ -16402,7 +16401,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="115" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>72</v>
       </c>
@@ -16515,7 +16514,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="116" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>72</v>
       </c>
@@ -16622,7 +16621,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="117" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>72</v>
       </c>
@@ -16729,7 +16728,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="118" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>72</v>
       </c>
@@ -16830,7 +16829,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="119" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>72</v>
       </c>
@@ -16931,7 +16930,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="120" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>73</v>
       </c>
@@ -17032,7 +17031,7 @@
         <v>45826</v>
       </c>
     </row>
-    <row r="121" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>73</v>
       </c>
@@ -17133,7 +17132,7 @@
         <v>45826</v>
       </c>
     </row>
-    <row r="122" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>70</v>
       </c>
@@ -17240,7 +17239,7 @@
         <v>45824</v>
       </c>
     </row>
-    <row r="123" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>75</v>
       </c>
@@ -17341,7 +17340,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="124" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>90</v>
       </c>
@@ -17430,7 +17429,7 @@
         <v>45821</v>
       </c>
     </row>
-    <row r="125" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>689361</v>
       </c>
@@ -17495,7 +17494,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="126" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>90</v>
       </c>
@@ -17584,7 +17583,7 @@
         <v>45821</v>
       </c>
     </row>
-    <row r="127" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>689362</v>
       </c>
@@ -17649,7 +17648,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="128" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>75</v>
       </c>
@@ -17762,7 +17761,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="129" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>75</v>
       </c>
@@ -17863,7 +17862,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="130" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>75</v>
       </c>
@@ -17970,7 +17969,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="131" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>75</v>
       </c>
@@ -18077,7 +18076,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="132" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>76</v>
       </c>
@@ -18178,7 +18177,7 @@
         <v>45828</v>
       </c>
     </row>
-    <row r="133" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>78</v>
       </c>
@@ -18279,7 +18278,7 @@
         <v>45831</v>
       </c>
     </row>
-    <row r="134" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>78</v>
       </c>
@@ -18380,7 +18379,7 @@
         <v>45831</v>
       </c>
     </row>
-    <row r="135" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>78</v>
       </c>
@@ -18469,7 +18468,7 @@
         <v>45831</v>
       </c>
     </row>
-    <row r="136" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>79</v>
       </c>
@@ -18570,7 +18569,7 @@
         <v>45832</v>
       </c>
     </row>
-    <row r="137" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>84</v>
       </c>
@@ -18677,7 +18676,7 @@
         <v>45835</v>
       </c>
     </row>
-    <row r="138" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>1371221</v>
       </c>
@@ -18742,7 +18741,7 @@
         <v>45222</v>
       </c>
     </row>
-    <row r="139" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>1371221</v>
       </c>
@@ -18807,7 +18806,7 @@
         <v>45334</v>
       </c>
     </row>
-    <row r="140" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>957542</v>
       </c>
@@ -18872,7 +18871,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="141" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>8782631</v>
       </c>
@@ -18937,7 +18936,7 @@
         <v>43346</v>
       </c>
     </row>
-    <row r="142" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B142">
         <v>8782631</v>
       </c>
@@ -19002,7 +19001,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="143" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>8782631</v>
       </c>
@@ -19067,7 +19066,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="144" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>8782631</v>
       </c>
@@ -19132,7 +19131,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="145" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>8782631</v>
       </c>
@@ -19197,7 +19196,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="146" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>8782631</v>
       </c>
@@ -19262,7 +19261,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="147" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>8782631</v>
       </c>
@@ -19327,7 +19326,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="148" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>812750</v>
       </c>
@@ -19392,7 +19391,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="149" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B149">
         <v>1262829</v>
       </c>
@@ -19457,7 +19456,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="150" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>552561</v>
       </c>
@@ -19522,7 +19521,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="151" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>1350081</v>
       </c>
@@ -19587,7 +19586,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="152" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>57</v>
       </c>
@@ -19688,7 +19687,7 @@
         <v>45812</v>
       </c>
     </row>
-    <row r="153" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>58</v>
       </c>
@@ -19789,7 +19788,7 @@
         <v>45813</v>
       </c>
     </row>
-    <row r="154" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>58</v>
       </c>
@@ -19890,7 +19889,7 @@
         <v>45813</v>
       </c>
     </row>
-    <row r="155" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>58</v>
       </c>
@@ -19979,7 +19978,7 @@
         <v>45813</v>
       </c>
     </row>
-    <row r="156" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>58</v>
       </c>
@@ -20080,7 +20079,7 @@
         <v>45813</v>
       </c>
     </row>
-    <row r="157" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>58</v>
       </c>
@@ -20181,7 +20180,7 @@
         <v>45813</v>
       </c>
     </row>
-    <row r="158" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>61</v>
       </c>
@@ -20282,7 +20281,7 @@
         <v>45813</v>
       </c>
     </row>
-    <row r="159" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>61</v>
       </c>
@@ -20383,7 +20382,7 @@
         <v>45813</v>
       </c>
     </row>
-    <row r="160" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>63</v>
       </c>
@@ -20484,7 +20483,7 @@
         <v>45814</v>
       </c>
     </row>
-    <row r="161" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>67</v>
       </c>
@@ -20573,7 +20572,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="162" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>73</v>
       </c>
@@ -20680,7 +20679,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="163" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>73</v>
       </c>
@@ -20787,7 +20786,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="164" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>73</v>
       </c>
@@ -20894,7 +20893,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="165" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>75</v>
       </c>
@@ -20983,7 +20982,7 @@
         <v>45831</v>
       </c>
     </row>
-    <row r="166" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>76</v>
       </c>
@@ -21084,7 +21083,7 @@
         <v>45831</v>
       </c>
     </row>
-    <row r="167" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>76</v>
       </c>
@@ -21185,7 +21184,7 @@
         <v>45831</v>
       </c>
     </row>
-    <row r="168" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>81</v>
       </c>
@@ -21286,7 +21285,7 @@
         <v>45834</v>
       </c>
     </row>
-    <row r="169" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>81</v>
       </c>
@@ -21387,7 +21386,7 @@
         <v>45834</v>
       </c>
     </row>
-    <row r="170" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>82</v>
       </c>
@@ -21488,7 +21487,7 @@
         <v>45835</v>
       </c>
     </row>
-    <row r="171" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>82</v>
       </c>
@@ -21595,7 +21594,7 @@
         <v>45835</v>
       </c>
     </row>
-    <row r="172" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>84</v>
       </c>
@@ -21696,7 +21695,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="173" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>87</v>
       </c>
@@ -21797,7 +21796,7 @@
         <v>45839</v>
       </c>
     </row>
-    <row r="174" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>87</v>
       </c>
@@ -21898,7 +21897,7 @@
         <v>45839</v>
       </c>
     </row>
-    <row r="175" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>88</v>
       </c>
@@ -21996,7 +21995,7 @@
         <v>45841</v>
       </c>
     </row>
-    <row r="176" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B176">
         <v>386584</v>
       </c>
@@ -22061,7 +22060,7 @@
         <v>42383</v>
       </c>
     </row>
-    <row r="177" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>13</v>
       </c>
@@ -22162,7 +22161,7 @@
         <v>42401</v>
       </c>
     </row>
-    <row r="178" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>13</v>
       </c>
@@ -22263,7 +22262,7 @@
         <v>42488</v>
       </c>
     </row>
-    <row r="179" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>13</v>
       </c>
@@ -22364,7 +22363,7 @@
         <v>42577</v>
       </c>
     </row>
-    <row r="180" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>13</v>
       </c>
@@ -22465,7 +22464,7 @@
         <v>42663</v>
       </c>
     </row>
-    <row r="181" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>13</v>
       </c>
@@ -22566,7 +22565,7 @@
         <v>42754</v>
       </c>
     </row>
-    <row r="182" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>13</v>
       </c>
@@ -22667,7 +22666,7 @@
         <v>42845</v>
       </c>
     </row>
-    <row r="183" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>13</v>
       </c>
@@ -22768,7 +22767,7 @@
         <v>42942</v>
       </c>
     </row>
-    <row r="184" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>13</v>
       </c>
@@ -22869,7 +22868,7 @@
         <v>43033</v>
       </c>
     </row>
-    <row r="185" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>13</v>
       </c>
@@ -22970,7 +22969,7 @@
         <v>43118</v>
       </c>
     </row>
-    <row r="186" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>13</v>
       </c>
@@ -23071,7 +23070,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="187" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>13</v>
       </c>
@@ -23172,7 +23171,7 @@
         <v>43301</v>
       </c>
     </row>
-    <row r="188" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>13</v>
       </c>
@@ -23273,7 +23272,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="189" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>13</v>
       </c>
@@ -23374,7 +23373,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="190" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>13</v>
       </c>
@@ -23475,7 +23474,7 @@
         <v>43573</v>
       </c>
     </row>
-    <row r="191" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>13</v>
       </c>
@@ -23576,7 +23575,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="192" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>13</v>
       </c>
@@ -23677,7 +23676,7 @@
         <v>43759</v>
       </c>
     </row>
-    <row r="193" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>13</v>
       </c>
@@ -23778,7 +23777,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="194" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>13</v>
       </c>
@@ -23879,7 +23878,7 @@
         <v>43959</v>
       </c>
     </row>
-    <row r="195" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>13</v>
       </c>
@@ -23980,7 +23979,7 @@
         <v>44056</v>
       </c>
     </row>
-    <row r="196" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>13</v>
       </c>
@@ -24081,7 +24080,7 @@
         <v>44152</v>
       </c>
     </row>
-    <row r="197" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>13</v>
       </c>
@@ -24182,7 +24181,7 @@
         <v>44221</v>
       </c>
     </row>
-    <row r="198" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>13</v>
       </c>
@@ -24283,7 +24282,7 @@
         <v>44306</v>
       </c>
     </row>
-    <row r="199" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>13</v>
       </c>
@@ -24384,7 +24383,7 @@
         <v>44399</v>
       </c>
     </row>
-    <row r="200" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>13</v>
       </c>
@@ -24485,7 +24484,7 @@
         <v>44531</v>
       </c>
     </row>
-    <row r="201" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>13</v>
       </c>
@@ -24589,7 +24588,7 @@
         <v>44589</v>
       </c>
     </row>
-    <row r="202" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>13</v>
       </c>
@@ -24690,7 +24689,7 @@
         <v>44670</v>
       </c>
     </row>
-    <row r="203" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>13</v>
       </c>
@@ -24791,7 +24790,7 @@
         <v>44762</v>
       </c>
     </row>
-    <row r="204" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>13</v>
       </c>
@@ -24892,7 +24891,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="205" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>13</v>
       </c>
@@ -24993,7 +24992,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="206" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>13</v>
       </c>
@@ -25094,7 +25093,7 @@
         <v>45042</v>
       </c>
     </row>
-    <row r="207" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>13</v>
       </c>
@@ -25195,7 +25194,7 @@
         <v>45124</v>
       </c>
     </row>
-    <row r="208" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>13</v>
       </c>
@@ -25296,7 +25295,7 @@
         <v>45218</v>
       </c>
     </row>
-    <row r="209" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>13</v>
       </c>
@@ -25397,7 +25396,7 @@
         <v>45314</v>
       </c>
     </row>
-    <row r="210" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>13</v>
       </c>
@@ -25498,7 +25497,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="211" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>13</v>
       </c>
@@ -25599,7 +25598,7 @@
         <v>45490</v>
       </c>
     </row>
-    <row r="212" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>13</v>
       </c>
@@ -25700,7 +25699,7 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="213" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>13</v>
       </c>
@@ -25801,7 +25800,7 @@
         <v>45681</v>
       </c>
     </row>
-    <row r="214" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>13</v>
       </c>
@@ -25902,7 +25901,7 @@
         <v>45770</v>
       </c>
     </row>
-    <row r="215" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B215">
         <v>386584</v>
       </c>
@@ -25967,7 +25966,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="216" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B216">
         <v>386584</v>
       </c>
@@ -26032,7 +26031,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="217" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B217">
         <v>386584</v>
       </c>
@@ -26097,7 +26096,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="218" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B218">
         <v>386584</v>
       </c>
@@ -26162,7 +26161,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="219" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B219">
         <v>386584</v>
       </c>
@@ -26227,7 +26226,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="220" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B220">
         <v>386584</v>
       </c>
@@ -26292,7 +26291,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="221" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B221">
         <v>386584</v>
       </c>
@@ -26357,7 +26356,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="222" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B222">
         <v>386584</v>
       </c>
@@ -26422,7 +26421,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="223" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B223">
         <v>386584</v>
       </c>
@@ -26487,7 +26486,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="224" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B224">
         <v>386584</v>
       </c>
@@ -26552,7 +26551,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="225" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B225">
         <v>386584</v>
       </c>
@@ -26617,7 +26616,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="226" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B226">
         <v>386584</v>
       </c>
@@ -26682,7 +26681,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="227" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B227">
         <v>386584</v>
       </c>
@@ -26747,7 +26746,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="228" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B228">
         <v>386584</v>
       </c>
@@ -26812,7 +26811,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="229" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B229">
         <v>386584</v>
       </c>
@@ -26877,7 +26876,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="230" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B230">
         <v>386584</v>
       </c>
@@ -26942,7 +26941,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="231" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B231">
         <v>386584</v>
       </c>
@@ -27007,7 +27006,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="232" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B232">
         <v>386584</v>
       </c>
@@ -27072,7 +27071,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="233" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B233">
         <v>386584</v>
       </c>
@@ -27137,7 +27136,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="234" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B234">
         <v>386584</v>
       </c>
@@ -27202,7 +27201,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="235" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B235">
         <v>386584</v>
       </c>
@@ -27267,7 +27266,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="236" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B236">
         <v>386584</v>
       </c>
@@ -27332,7 +27331,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="237" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B237">
         <v>386584</v>
       </c>
@@ -27397,7 +27396,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="238" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B238">
         <v>386584</v>
       </c>
@@ -27462,7 +27461,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="239" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B239">
         <v>386584</v>
       </c>
@@ -27527,7 +27526,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="240" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B240">
         <v>386584</v>
       </c>
@@ -27592,7 +27591,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="241" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B241">
         <v>386584</v>
       </c>
@@ -27657,7 +27656,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="242" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B242">
         <v>386584</v>
       </c>
@@ -27722,7 +27721,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="243" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B243">
         <v>386584</v>
       </c>
@@ -27787,7 +27786,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="244" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B244">
         <v>386584</v>
       </c>
@@ -27852,7 +27851,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="245" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B245">
         <v>386584</v>
       </c>
@@ -27917,7 +27916,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="246" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B246">
         <v>386584</v>
       </c>
@@ -27982,7 +27981,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="247" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B247">
         <v>386584</v>
       </c>
@@ -28047,7 +28046,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="248" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B248">
         <v>386584</v>
       </c>
@@ -28112,7 +28111,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="249" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B249">
         <v>386584</v>
       </c>
@@ -28177,7 +28176,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="250" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B250">
         <v>386584</v>
       </c>
@@ -28242,7 +28241,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="251" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B251">
         <v>386584</v>
       </c>
@@ -28307,7 +28306,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="252" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B252">
         <v>386584</v>
       </c>
@@ -28372,7 +28371,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="253" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B253">
         <v>1086140</v>
       </c>
@@ -28437,7 +28436,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="254" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B254">
         <v>953616</v>
       </c>
@@ -28502,7 +28501,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="255" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B255">
         <v>1594228</v>
       </c>
@@ -28567,7 +28566,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="256" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B256">
         <v>1594228</v>
       </c>
@@ -28632,7 +28631,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="257" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>79</v>
       </c>
@@ -28751,7 +28750,7 @@
         <v>45832</v>
       </c>
     </row>
-    <row r="258" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>88</v>
       </c>
@@ -28852,7 +28851,7 @@
         <v>45840</v>
       </c>
     </row>
-    <row r="259" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>7</v>
       </c>
@@ -28953,7 +28952,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="260" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>7</v>
       </c>
@@ -29054,7 +29053,7 @@
         <v>44047</v>
       </c>
     </row>
-    <row r="261" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>7</v>
       </c>
@@ -29158,7 +29157,7 @@
         <v>44146</v>
       </c>
     </row>
-    <row r="262" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>7</v>
       </c>
@@ -29259,7 +29258,7 @@
         <v>44216</v>
       </c>
     </row>
-    <row r="263" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>7</v>
       </c>
@@ -29360,7 +29359,7 @@
         <v>44295</v>
       </c>
     </row>
-    <row r="264" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>7</v>
       </c>
@@ -29461,7 +29460,7 @@
         <v>44396</v>
       </c>
     </row>
-    <row r="265" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>7</v>
       </c>
@@ -29562,7 +29561,7 @@
         <v>44526</v>
       </c>
     </row>
-    <row r="266" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>7</v>
       </c>
@@ -29666,7 +29665,7 @@
         <v>44582</v>
       </c>
     </row>
-    <row r="267" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>7</v>
       </c>
@@ -29767,7 +29766,7 @@
         <v>44663</v>
       </c>
     </row>
-    <row r="268" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>7</v>
       </c>
@@ -29868,7 +29867,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="269" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>7</v>
       </c>
@@ -29969,7 +29968,7 @@
         <v>44846</v>
       </c>
     </row>
-    <row r="270" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>7</v>
       </c>
@@ -30070,7 +30069,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="271" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>7</v>
       </c>
@@ -30171,7 +30170,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="272" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>7</v>
       </c>
@@ -30272,7 +30271,7 @@
         <v>45673</v>
       </c>
     </row>
-    <row r="273" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>7</v>
       </c>
@@ -30373,7 +30372,7 @@
         <v>45761</v>
       </c>
     </row>
-    <row r="274" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B274">
         <v>349939</v>
       </c>
@@ -30438,7 +30437,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="275" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B275">
         <v>1890449</v>
       </c>
@@ -30503,7 +30502,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="276" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B276">
         <v>1890449</v>
       </c>
@@ -30568,7 +30567,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="277" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B277">
         <v>1519148</v>
       </c>
@@ -30633,7 +30632,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="278" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B278">
         <v>770702</v>
       </c>
@@ -30698,7 +30697,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="279" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B279">
         <v>770702</v>
       </c>
@@ -30763,7 +30762,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="280" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B280">
         <v>770702</v>
       </c>
@@ -30828,7 +30827,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="281" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B281">
         <v>770702</v>
       </c>
@@ -30893,7 +30892,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="282" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B282">
         <v>770702</v>
       </c>
@@ -30958,7 +30957,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="283" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B283">
         <v>770702</v>
       </c>
@@ -31023,7 +31022,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="284" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B284">
         <v>770702</v>
       </c>
@@ -31088,7 +31087,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="285" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B285">
         <v>770702</v>
       </c>
@@ -31153,7 +31152,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="286" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B286">
         <v>770702</v>
       </c>
@@ -31218,7 +31217,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="287" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B287">
         <v>770702</v>
       </c>
@@ -31283,7 +31282,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="288" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B288">
         <v>770702</v>
       </c>
@@ -31348,7 +31347,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="289" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B289">
         <v>770702</v>
       </c>
@@ -31413,7 +31412,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="290" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B290">
         <v>770702</v>
       </c>
@@ -31478,7 +31477,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="291" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B291">
         <v>770702</v>
       </c>
@@ -31543,7 +31542,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="292" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B292">
         <v>770702</v>
       </c>
@@ -31608,7 +31607,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="293" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B293">
         <v>770702</v>
       </c>
@@ -31673,7 +31672,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="294" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B294">
         <v>770702</v>
       </c>
@@ -31738,7 +31737,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="295" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B295">
         <v>770702</v>
       </c>
@@ -31803,7 +31802,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="296" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B296">
         <v>770702</v>
       </c>
@@ -31868,7 +31867,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="297" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B297">
         <v>770702</v>
       </c>
@@ -31933,7 +31932,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="298" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B298">
         <v>1592066</v>
       </c>
@@ -31998,7 +31997,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="299" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B299">
         <v>1337091</v>
       </c>
@@ -32063,7 +32062,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="300" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>67</v>
       </c>
@@ -32170,7 +32169,7 @@
         <v>45824</v>
       </c>
     </row>
-    <row r="301" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>66</v>
       </c>
@@ -32271,7 +32270,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="302" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>66</v>
       </c>
@@ -32372,7 +32371,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="303" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>66</v>
       </c>
@@ -32473,7 +32472,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="304" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>64</v>
       </c>
@@ -32574,7 +32573,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="305" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>64</v>
       </c>
@@ -32675,7 +32674,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="306" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>64</v>
       </c>
@@ -32776,7 +32775,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="307" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>64</v>
       </c>
@@ -32877,7 +32876,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="308" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>64</v>
       </c>
@@ -32978,7 +32977,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="309" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>64</v>
       </c>
@@ -33079,7 +33078,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="310" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>52</v>
       </c>
@@ -33180,7 +33179,7 @@
         <v>45447</v>
       </c>
     </row>
-    <row r="311" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>52</v>
       </c>
@@ -33281,7 +33280,7 @@
         <v>45532</v>
       </c>
     </row>
-    <row r="312" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>52</v>
       </c>
@@ -33382,7 +33381,7 @@
         <v>45622</v>
       </c>
     </row>
-    <row r="313" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>52</v>
       </c>
@@ -33483,7 +33482,7 @@
         <v>45716</v>
       </c>
     </row>
-    <row r="314" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>52</v>
       </c>
@@ -33584,7 +33583,7 @@
         <v>45805</v>
       </c>
     </row>
-    <row r="315" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>67</v>
       </c>
@@ -33685,7 +33684,7 @@
         <v>45824</v>
       </c>
     </row>
-    <row r="316" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>67</v>
       </c>
@@ -33792,7 +33791,7 @@
         <v>45824</v>
       </c>
     </row>
-    <row r="317" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>67</v>
       </c>
@@ -33893,7 +33892,7 @@
         <v>45824</v>
       </c>
     </row>
-    <row r="318" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>69</v>
       </c>
@@ -33994,7 +33993,7 @@
         <v>45824</v>
       </c>
     </row>
-    <row r="319" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>66</v>
       </c>
@@ -34095,7 +34094,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="320" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>70</v>
       </c>
@@ -34196,7 +34195,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="321" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>72</v>
       </c>
@@ -34297,7 +34296,7 @@
         <v>45826</v>
       </c>
     </row>
-    <row r="322" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>72</v>
       </c>
@@ -34398,7 +34397,7 @@
         <v>45826</v>
       </c>
     </row>
-    <row r="323" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>73</v>
       </c>
@@ -34505,7 +34504,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="324" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>73</v>
       </c>
@@ -34606,7 +34605,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="325" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>73</v>
       </c>
@@ -34707,7 +34706,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="326" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>81</v>
       </c>
@@ -34808,7 +34807,7 @@
         <v>45835</v>
       </c>
     </row>
-    <row r="327" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>81</v>
       </c>
@@ -34909,7 +34908,7 @@
         <v>45835</v>
       </c>
     </row>
-    <row r="328" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>81</v>
       </c>
@@ -35010,7 +35009,7 @@
         <v>45835</v>
       </c>
     </row>
-    <row r="329" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>81</v>
       </c>
@@ -35099,7 +35098,7 @@
         <v>45835</v>
       </c>
     </row>
-    <row r="330" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>84</v>
       </c>
@@ -35206,7 +35205,7 @@
         <v>45839</v>
       </c>
     </row>
-    <row r="331" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>85</v>
       </c>
@@ -35313,7 +35312,7 @@
         <v>45840</v>
       </c>
     </row>
-    <row r="332" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>85</v>
       </c>
@@ -35414,7 +35413,7 @@
         <v>45840</v>
       </c>
     </row>
-    <row r="333" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>88</v>
       </c>
@@ -35515,7 +35514,7 @@
         <v>45841</v>
       </c>
     </row>
-    <row r="334" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B334">
         <v>1442793</v>
       </c>
@@ -35580,7 +35579,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="335" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B335">
         <v>657718</v>
       </c>
@@ -35645,7 +35644,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="336" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B336">
         <v>1649815</v>
       </c>
@@ -35710,7 +35709,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="337" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>61</v>
       </c>
@@ -35811,7 +35810,7 @@
         <v>45812</v>
       </c>
     </row>
-    <row r="338" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>63</v>
       </c>
@@ -35918,7 +35917,7 @@
         <v>45814</v>
       </c>
     </row>
-    <row r="339" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>63</v>
       </c>
@@ -36019,7 +36018,7 @@
         <v>45814</v>
       </c>
     </row>
-    <row r="340" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>78</v>
       </c>
@@ -36120,7 +36119,7 @@
         <v>45831</v>
       </c>
     </row>
-    <row r="341" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>87</v>
       </c>
@@ -36221,7 +36220,7 @@
         <v>45840</v>
       </c>
     </row>
-    <row r="342" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>87</v>
       </c>
@@ -36322,7 +36321,7 @@
         <v>45840</v>
       </c>
     </row>
-    <row r="343" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>85</v>
       </c>
@@ -36429,7 +36428,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="344" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>85</v>
       </c>
@@ -36530,7 +36529,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="345" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>84</v>
       </c>
@@ -36631,7 +36630,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="346" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>1</v>
       </c>
@@ -36720,7 +36719,7 @@
         <v>45841</v>
       </c>
     </row>
-    <row r="347" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1</v>
       </c>
@@ -36824,7 +36823,7 @@
         <v>43104</v>
       </c>
     </row>
-    <row r="348" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1</v>
       </c>
@@ -36922,7 +36921,7 @@
         <v>43194</v>
       </c>
     </row>
-    <row r="349" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1</v>
       </c>
@@ -37023,7 +37022,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="350" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1</v>
       </c>
@@ -37127,7 +37126,7 @@
         <v>43385</v>
       </c>
     </row>
-    <row r="351" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1</v>
       </c>
@@ -37225,7 +37224,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="352" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1</v>
       </c>
@@ -37323,7 +37322,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="353" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B353">
         <v>1371221</v>
       </c>
@@ -37388,7 +37387,7 @@
         <v>43563</v>
       </c>
     </row>
-    <row r="354" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>1</v>
       </c>
@@ -37498,7 +37497,7 @@
         <v>43945</v>
       </c>
     </row>
-    <row r="355" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>1</v>
       </c>
@@ -37614,7 +37613,7 @@
         <v>44036</v>
       </c>
     </row>
-    <row r="356" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B356">
         <v>1371221</v>
       </c>
@@ -37679,7 +37678,7 @@
         <v>44072</v>
       </c>
     </row>
-    <row r="357" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B357">
         <v>1371221</v>
       </c>
@@ -37744,7 +37743,7 @@
         <v>44072</v>
       </c>
     </row>
-    <row r="358" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B358">
         <v>1371221</v>
       </c>
@@ -37809,7 +37808,7 @@
         <v>44072</v>
       </c>
     </row>
-    <row r="359" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B359">
         <v>1371221</v>
       </c>
@@ -37874,7 +37873,7 @@
         <v>44072</v>
       </c>
     </row>
-    <row r="360" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B360">
         <v>1371221</v>
       </c>
@@ -37939,7 +37938,7 @@
         <v>44072</v>
       </c>
     </row>
-    <row r="361" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B361">
         <v>1371221</v>
       </c>
@@ -38004,7 +38003,7 @@
         <v>44072</v>
       </c>
     </row>
-    <row r="362" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B362">
         <v>1371221</v>
       </c>
@@ -38069,7 +38068,7 @@
         <v>44072</v>
       </c>
     </row>
-    <row r="363" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B363">
         <v>1371221</v>
       </c>
@@ -38134,7 +38133,7 @@
         <v>44072</v>
       </c>
     </row>
-    <row r="364" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B364">
         <v>1371221</v>
       </c>
@@ -38199,7 +38198,7 @@
         <v>44072</v>
       </c>
     </row>
-    <row r="365" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B365">
         <v>1371221</v>
       </c>
@@ -38264,7 +38263,7 @@
         <v>44072</v>
       </c>
     </row>
-    <row r="366" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B366">
         <v>1371221</v>
       </c>
@@ -38329,7 +38328,7 @@
         <v>44072</v>
       </c>
     </row>
-    <row r="367" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B367">
         <v>1371221</v>
       </c>
@@ -38394,7 +38393,7 @@
         <v>44072</v>
       </c>
     </row>
-    <row r="368" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1</v>
       </c>
@@ -38516,7 +38515,7 @@
         <v>44137</v>
       </c>
     </row>
-    <row r="369" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B369">
         <v>1371221</v>
       </c>
@@ -38581,7 +38580,7 @@
         <v>44146</v>
       </c>
     </row>
-    <row r="370" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B370">
         <v>1371221</v>
       </c>
@@ -38646,7 +38645,7 @@
         <v>44146</v>
       </c>
     </row>
-    <row r="371" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B371">
         <v>1371221</v>
       </c>
@@ -38711,7 +38710,7 @@
         <v>44146</v>
       </c>
     </row>
-    <row r="372" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B372">
         <v>1371221</v>
       </c>
@@ -38776,7 +38775,7 @@
         <v>44146</v>
       </c>
     </row>
-    <row r="373" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B373">
         <v>1371221</v>
       </c>
@@ -38841,7 +38840,7 @@
         <v>44146</v>
       </c>
     </row>
-    <row r="374" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B374">
         <v>1371221</v>
       </c>
@@ -38906,7 +38905,7 @@
         <v>44146</v>
       </c>
     </row>
-    <row r="375" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B375">
         <v>1371221</v>
       </c>
@@ -38971,7 +38970,7 @@
         <v>44146</v>
       </c>
     </row>
-    <row r="376" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B376">
         <v>1371221</v>
       </c>
@@ -39036,7 +39035,7 @@
         <v>44146</v>
       </c>
     </row>
-    <row r="377" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>1</v>
       </c>
@@ -39140,7 +39139,7 @@
         <v>44208</v>
       </c>
     </row>
-    <row r="378" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B378">
         <v>1371221</v>
       </c>
@@ -39205,7 +39204,7 @@
         <v>44210</v>
       </c>
     </row>
-    <row r="379" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B379">
         <v>1371221</v>
       </c>
@@ -39270,7 +39269,7 @@
         <v>44265</v>
       </c>
     </row>
-    <row r="380" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>1</v>
       </c>
@@ -39380,7 +39379,7 @@
         <v>44291</v>
       </c>
     </row>
-    <row r="381" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>1</v>
       </c>
@@ -39490,7 +39489,7 @@
         <v>44393</v>
       </c>
     </row>
-    <row r="382" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>1</v>
       </c>
@@ -39612,7 +39611,7 @@
         <v>44523</v>
       </c>
     </row>
-    <row r="383" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>1</v>
       </c>
@@ -39710,7 +39709,7 @@
         <v>44630</v>
       </c>
     </row>
-    <row r="384" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>1</v>
       </c>
@@ -39808,7 +39807,7 @@
         <v>44657</v>
       </c>
     </row>
-    <row r="385" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>1</v>
       </c>
@@ -39909,7 +39908,7 @@
         <v>44746</v>
       </c>
     </row>
-    <row r="386" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>1</v>
       </c>
@@ -40007,7 +40006,7 @@
         <v>44839</v>
       </c>
     </row>
-    <row r="387" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>1</v>
       </c>
@@ -40105,7 +40104,7 @@
         <v>44929</v>
       </c>
     </row>
-    <row r="388" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>1</v>
       </c>
@@ -40203,7 +40202,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="389" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1</v>
       </c>
@@ -40304,7 +40303,7 @@
         <v>45111</v>
       </c>
     </row>
-    <row r="390" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1</v>
       </c>
@@ -40402,7 +40401,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="391" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>1</v>
       </c>
@@ -40500,7 +40499,7 @@
         <v>45295</v>
       </c>
     </row>
-    <row r="392" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>1</v>
       </c>
@@ -40598,7 +40597,7 @@
         <v>45386</v>
       </c>
     </row>
-    <row r="393" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>1</v>
       </c>
@@ -40696,7 +40695,7 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="394" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>1</v>
       </c>
@@ -40794,7 +40793,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="395" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>1</v>
       </c>
@@ -40892,7 +40891,7 @@
         <v>45665</v>
       </c>
     </row>
-    <row r="396" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>1</v>
       </c>
@@ -40990,7 +40989,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="397" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>1</v>
       </c>
@@ -41088,7 +41087,7 @@
         <v>45841</v>
       </c>
     </row>
-    <row r="398" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B398">
         <v>1561240</v>
       </c>
@@ -41153,7 +41152,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="399" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B399">
         <v>1385699</v>
       </c>
@@ -41218,7 +41217,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="400" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B400">
         <v>1629110</v>
       </c>
@@ -41283,7 +41282,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="401" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B401">
         <v>2081867</v>
       </c>
@@ -41348,7 +41347,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="402" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B402">
         <v>1633873</v>
       </c>
@@ -41413,7 +41412,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="403" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B403">
         <v>1594728</v>
       </c>
@@ -41478,7 +41477,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="404" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>64</v>
       </c>
@@ -41579,7 +41578,7 @@
         <v>45818</v>
       </c>
     </row>
-    <row r="405" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>64</v>
       </c>
@@ -41680,7 +41679,7 @@
         <v>45818</v>
       </c>
     </row>
-    <row r="406" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>70</v>
       </c>
@@ -41781,7 +41780,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="407" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>67</v>
       </c>
@@ -41870,7 +41869,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="408" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>67</v>
       </c>
@@ -41971,7 +41970,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="409" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>66</v>
       </c>
@@ -42078,7 +42077,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="410" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B410">
         <v>957538</v>
       </c>
@@ -42143,7 +42142,7 @@
         <v>44873</v>
       </c>
     </row>
-    <row r="411" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B411">
         <v>957538</v>
       </c>
@@ -42208,7 +42207,7 @@
         <v>44873</v>
       </c>
     </row>
-    <row r="412" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B412">
         <v>957538</v>
       </c>
@@ -42273,7 +42272,7 @@
         <v>44873</v>
       </c>
     </row>
-    <row r="413" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B413">
         <v>957538</v>
       </c>
@@ -42338,7 +42337,7 @@
         <v>44873</v>
       </c>
     </row>
-    <row r="414" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B414">
         <v>957538</v>
       </c>
@@ -42403,7 +42402,7 @@
         <v>44873</v>
       </c>
     </row>
-    <row r="415" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>72</v>
       </c>
@@ -42504,7 +42503,7 @@
         <v>44909</v>
       </c>
     </row>
-    <row r="416" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>72</v>
       </c>
@@ -42605,7 +42604,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="417" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>72</v>
       </c>
@@ -42712,7 +42711,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="418" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>72</v>
       </c>
@@ -42813,7 +42812,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="419" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>72</v>
       </c>
@@ -42914,7 +42913,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="420" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>72</v>
       </c>
@@ -43015,7 +43014,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row r="421" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>72</v>
       </c>
@@ -43116,7 +43115,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="422" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>72</v>
       </c>
@@ -43217,7 +43216,7 @@
         <v>45552</v>
       </c>
     </row>
-    <row r="423" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>72</v>
       </c>
@@ -43318,7 +43317,7 @@
         <v>45639</v>
       </c>
     </row>
-    <row r="424" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>72</v>
       </c>
@@ -43419,7 +43418,7 @@
         <v>45735</v>
       </c>
     </row>
-    <row r="425" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>72</v>
       </c>
@@ -43523,7 +43522,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="426" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B426">
         <v>957538</v>
       </c>
@@ -43588,7 +43587,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="427" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B427">
         <v>957538</v>
       </c>
@@ -43653,7 +43652,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="428" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B428">
         <v>957538</v>
       </c>
@@ -43718,7 +43717,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="429" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B429">
         <v>957538</v>
       </c>
@@ -43783,7 +43782,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="430" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B430">
         <v>957538</v>
       </c>
@@ -43848,7 +43847,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="431" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B431">
         <v>957538</v>
       </c>
@@ -43913,7 +43912,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="432" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B432">
         <v>957538</v>
       </c>
@@ -43978,7 +43977,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="433" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B433">
         <v>957538</v>
       </c>
@@ -44043,7 +44042,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="434" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B434">
         <v>957538</v>
       </c>
@@ -44108,7 +44107,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="435" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B435">
         <v>957538</v>
       </c>
@@ -44173,7 +44172,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="436" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B436">
         <v>957538</v>
       </c>
@@ -44238,7 +44237,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="437" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>72</v>
       </c>
@@ -44351,7 +44350,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="438" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>72</v>
       </c>
@@ -44476,7 +44475,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="439" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>72</v>
       </c>
@@ -44589,7 +44588,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="440" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B440">
         <v>957542</v>
       </c>
@@ -44654,7 +44653,7 @@
         <v>45300</v>
       </c>
     </row>
-    <row r="441" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B441">
         <v>957542</v>
       </c>
@@ -44722,7 +44721,7 @@
         <v>45335</v>
       </c>
     </row>
-    <row r="442" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>72</v>
       </c>
@@ -44826,7 +44825,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row r="443" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B443">
         <v>957542</v>
       </c>
@@ -44891,7 +44890,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row r="444" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>72</v>
       </c>
@@ -44995,7 +44994,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="445" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>72</v>
       </c>
@@ -45096,7 +45095,7 @@
         <v>45552</v>
       </c>
     </row>
-    <row r="446" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>72</v>
       </c>
@@ -45197,7 +45196,7 @@
         <v>45639</v>
       </c>
     </row>
-    <row r="447" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>72</v>
       </c>
@@ -45298,7 +45297,7 @@
         <v>45735</v>
       </c>
     </row>
-    <row r="448" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>72</v>
       </c>
@@ -45399,7 +45398,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="449" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B449">
         <v>957542</v>
       </c>
@@ -45464,7 +45463,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="450" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B450">
         <v>957542</v>
       </c>
@@ -45529,7 +45528,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="451" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B451">
         <v>957542</v>
       </c>
@@ -45594,7 +45593,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="452" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B452">
         <v>957542</v>
       </c>
@@ -45659,7 +45658,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="453" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B453">
         <v>957542</v>
       </c>
@@ -45724,7 +45723,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="454" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B454">
         <v>957542</v>
       </c>
@@ -45789,7 +45788,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="455" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B455">
         <v>957542</v>
       </c>
@@ -45854,7 +45853,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="456" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B456">
         <v>957542</v>
       </c>
@@ -45919,7 +45918,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="457" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B457">
         <v>957542</v>
       </c>
@@ -45984,7 +45983,7 @@
         <v>45842</v>
       </c>
     </row>
-    <row r="458" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>76</v>
       </c>
@@ -46085,7 +46084,7 @@
         <v>45828</v>
       </c>
     </row>
-    <row r="459" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>78</v>
       </c>
@@ -46186,7 +46185,7 @@
         <v>45831</v>
       </c>
     </row>
-    <row r="460" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>76</v>
       </c>
@@ -46287,7 +46286,7 @@
         <v>45828</v>
       </c>
     </row>
-    <row r="461" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>79</v>
       </c>
@@ -46388,7 +46387,7 @@
         <v>45832</v>
       </c>
     </row>
-    <row r="462" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>79</v>
       </c>
@@ -46489,7 +46488,7 @@
         <v>45832</v>
       </c>
     </row>
-    <row r="463" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>82</v>
       </c>
@@ -46590,7 +46589,7 @@
         <v>45834</v>
       </c>
     </row>
-    <row r="464" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>85</v>
       </c>
@@ -46691,7 +46690,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="465" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>85</v>
       </c>
@@ -46792,7 +46791,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="466" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>85</v>
       </c>
@@ -46893,7 +46892,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="467" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>88</v>
       </c>
@@ -46991,7 +46990,7 @@
         <v>45840</v>
       </c>
     </row>
-    <row r="468" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>97</v>
       </c>
@@ -47080,7 +47079,7 @@
         <v>43321</v>
       </c>
     </row>
-    <row r="469" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>97</v>
       </c>
@@ -47169,7 +47168,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="470" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>97</v>
       </c>
@@ -47258,7 +47257,7 @@
         <v>44102</v>
       </c>
     </row>
-    <row r="471" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>97</v>
       </c>
@@ -47347,7 +47346,7 @@
         <v>44529</v>
       </c>
     </row>
-    <row r="472" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>97</v>
       </c>
@@ -47436,7 +47435,7 @@
         <v>44734</v>
       </c>
     </row>
-    <row r="473" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>97</v>
       </c>
@@ -47525,7 +47524,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="474" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>97</v>
       </c>
@@ -47614,7 +47613,7 @@
         <v>45653</v>
       </c>
     </row>
-    <row r="475" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B475">
         <v>8782631</v>
       </c>
@@ -47679,7 +47678,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="476" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B476">
         <v>8782631</v>
       </c>
@@ -47744,7 +47743,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="477" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B477">
         <v>8782631</v>
       </c>
@@ -47809,7 +47808,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="478" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B478">
         <v>8782631</v>
       </c>
@@ -47874,7 +47873,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="479" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B479">
         <v>8782631</v>
       </c>
@@ -47939,7 +47938,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="480" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B480">
         <v>8782631</v>
       </c>
@@ -48004,7 +48003,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="481" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B481">
         <v>8782631</v>
       </c>
@@ -48069,7 +48068,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="482" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B482">
         <v>8782631</v>
       </c>
@@ -48134,7 +48133,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="483" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B483">
         <v>8782631</v>
       </c>
@@ -48199,7 +48198,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="484" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B484">
         <v>8782631</v>
       </c>
@@ -48264,7 +48263,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="485" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B485">
         <v>8782631</v>
       </c>
@@ -48329,7 +48328,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="486" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B486">
         <v>8782631</v>
       </c>
@@ -48394,7 +48393,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="487" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B487">
         <v>8782631</v>
       </c>
@@ -48459,7 +48458,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="488" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B488">
         <v>8782631</v>
       </c>
@@ -48524,7 +48523,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="489" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>7</v>
       </c>
@@ -48631,7 +48630,7 @@
         <v>45399</v>
       </c>
     </row>
-    <row r="490" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>7</v>
       </c>
@@ -48738,7 +48737,7 @@
         <v>45485</v>
       </c>
     </row>
-    <row r="491" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>7</v>
       </c>
@@ -48845,7 +48844,7 @@
         <v>45576</v>
       </c>
     </row>
-    <row r="492" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>7</v>
       </c>
@@ -48952,7 +48951,7 @@
         <v>45673</v>
       </c>
     </row>
-    <row r="493" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>7</v>
       </c>
@@ -49059,7 +49058,7 @@
         <v>45758</v>
       </c>
     </row>
-    <row r="494" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>58</v>
       </c>
@@ -49160,7 +49159,7 @@
         <v>45812</v>
       </c>
     </row>
-    <row r="495" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>58</v>
       </c>
@@ -49249,7 +49248,7 @@
         <v>45812</v>
       </c>
     </row>
-    <row r="496" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>73</v>
       </c>
@@ -49350,7 +49349,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="497" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>73</v>
       </c>
@@ -49451,7 +49450,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="498" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>73</v>
       </c>
@@ -49558,7 +49557,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="499" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>73</v>
       </c>
@@ -49659,7 +49658,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="500" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>69</v>
       </c>
@@ -49760,7 +49759,7 @@
         <v>45821</v>
       </c>
     </row>
-    <row r="501" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>69</v>
       </c>
@@ -49861,7 +49860,7 @@
         <v>45821</v>
       </c>
     </row>
-    <row r="502" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>78</v>
       </c>
@@ -49962,7 +49961,7 @@
         <v>45833</v>
       </c>
     </row>
-    <row r="503" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>85</v>
       </c>
@@ -50060,7 +50059,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="504" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>87</v>
       </c>
@@ -50158,7 +50157,7 @@
         <v>45839</v>
       </c>
     </row>
-    <row r="505" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>87</v>
       </c>
@@ -50256,7 +50255,7 @@
         <v>45839</v>
       </c>
     </row>
-    <row r="506" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>87</v>
       </c>
@@ -50354,7 +50353,7 @@
         <v>45839</v>
       </c>
     </row>
-    <row r="507" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B507">
         <v>1666284</v>
       </c>
@@ -50419,7 +50418,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="508" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B508">
         <v>2086617</v>
       </c>
@@ -50484,7 +50483,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="509" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B509">
         <v>601000</v>
       </c>
@@ -50549,7 +50548,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="510" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B510">
         <v>1265673</v>
       </c>
@@ -50614,7 +50613,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="511" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B511">
         <v>1265674</v>
       </c>
@@ -50679,7 +50678,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="512" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B512">
         <v>1674360</v>
       </c>
@@ -50744,7 +50743,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="513" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B513">
         <v>1674360</v>
       </c>
@@ -50809,7 +50808,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="514" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B514">
         <v>1674360</v>
       </c>
@@ -50874,7 +50873,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="515" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B515">
         <v>1674360</v>
       </c>
@@ -50939,7 +50938,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="516" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B516">
         <v>1674360</v>
       </c>
@@ -51004,7 +51003,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="517" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B517">
         <v>1674360</v>
       </c>
@@ -51069,7 +51068,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="518" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B518">
         <v>1674360</v>
       </c>
@@ -51134,7 +51133,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="519" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B519">
         <v>1674360</v>
       </c>
@@ -51199,7 +51198,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="520" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B520">
         <v>1674360</v>
       </c>
@@ -51264,7 +51263,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="521" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B521">
         <v>1674360</v>
       </c>
@@ -51329,7 +51328,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="522" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B522">
         <v>1674360</v>
       </c>
@@ -51394,7 +51393,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="523" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B523">
         <v>1674360</v>
       </c>
@@ -51459,7 +51458,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="524" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B524">
         <v>1674360</v>
       </c>
@@ -51524,7 +51523,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="525" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B525">
         <v>1674360</v>
       </c>
@@ -51589,7 +51588,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="526" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B526">
         <v>1674360</v>
       </c>
@@ -51654,7 +51653,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="527" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B527">
         <v>1674360</v>
       </c>
@@ -51719,7 +51718,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="528" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B528">
         <v>1674360</v>
       </c>
@@ -51784,7 +51783,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="529" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B529">
         <v>1674360</v>
       </c>
@@ -51849,7 +51848,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="530" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B530">
         <v>1674360</v>
       </c>
@@ -51914,7 +51913,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="531" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B531">
         <v>1674360</v>
       </c>
@@ -51979,7 +51978,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="532" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B532">
         <v>1674360</v>
       </c>
@@ -52044,7 +52043,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="533" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B533">
         <v>1674360</v>
       </c>
@@ -52109,7 +52108,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="534" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B534">
         <v>1674360</v>
       </c>
@@ -52174,7 +52173,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="535" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B535">
         <v>1674360</v>
       </c>
@@ -52239,7 +52238,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="536" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B536">
         <v>1674360</v>
       </c>
@@ -52304,7 +52303,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="537" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B537">
         <v>1674360</v>
       </c>
@@ -52369,7 +52368,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="538" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B538">
         <v>1674360</v>
       </c>
@@ -52434,7 +52433,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="539" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B539">
         <v>1674360</v>
       </c>
@@ -52499,7 +52498,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="540" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B540">
         <v>1674360</v>
       </c>
@@ -52564,7 +52563,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="541" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B541">
         <v>1674360</v>
       </c>
@@ -52629,7 +52628,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="542" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B542">
         <v>1674360</v>
       </c>
@@ -52694,7 +52693,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="543" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B543">
         <v>1674360</v>
       </c>
@@ -52759,7 +52758,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="544" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B544">
         <v>1674360</v>
       </c>
@@ -52824,7 +52823,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="545" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B545">
         <v>1674360</v>
       </c>
@@ -52889,7 +52888,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="546" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B546">
         <v>1674360</v>
       </c>
@@ -52954,7 +52953,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="547" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B547">
         <v>1674360</v>
       </c>
@@ -53019,7 +53018,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="548" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B548">
         <v>1674360</v>
       </c>
@@ -53084,7 +53083,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="549" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B549">
         <v>1674360</v>
       </c>
@@ -53149,7 +53148,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="550" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B550">
         <v>1674360</v>
       </c>
@@ -53214,7 +53213,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="551" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B551">
         <v>1674360</v>
       </c>
@@ -53279,7 +53278,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="552" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B552">
         <v>1674360</v>
       </c>
@@ -53344,7 +53343,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="553" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B553">
         <v>1674360</v>
       </c>
@@ -53409,7 +53408,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="554" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B554">
         <v>1674360</v>
       </c>
@@ -53474,7 +53473,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="555" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B555">
         <v>1674360</v>
       </c>
@@ -53539,7 +53538,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="556" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B556">
         <v>1674360</v>
       </c>
@@ -53604,7 +53603,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="557" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B557">
         <v>1674360</v>
       </c>
@@ -53669,7 +53668,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="558" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B558">
         <v>1674360</v>
       </c>
@@ -53734,7 +53733,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="559" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B559">
         <v>1674360</v>
       </c>
@@ -53799,7 +53798,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="560" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B560">
         <v>1674360</v>
       </c>
@@ -53864,7 +53863,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="561" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B561">
         <v>1674360</v>
       </c>
@@ -53929,7 +53928,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="562" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B562">
         <v>1674360</v>
       </c>
@@ -53994,7 +53993,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="563" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B563">
         <v>1674360</v>
       </c>
@@ -54059,7 +54058,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="564" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B564">
         <v>1674360</v>
       </c>
@@ -54124,7 +54123,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="565" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B565">
         <v>1674360</v>
       </c>
@@ -54189,7 +54188,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="566" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B566">
         <v>1674360</v>
       </c>
@@ -54254,7 +54253,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="567" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B567">
         <v>1674360</v>
       </c>
@@ -54319,7 +54318,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="568" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B568">
         <v>1674360</v>
       </c>
@@ -54384,7 +54383,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="569" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B569">
         <v>1674360</v>
       </c>
@@ -54449,7 +54448,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="570" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B570">
         <v>1674360</v>
       </c>
@@ -54514,7 +54513,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="571" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B571">
         <v>1674360</v>
       </c>
@@ -54579,7 +54578,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="572" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B572">
         <v>1674360</v>
       </c>
@@ -54644,7 +54643,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="573" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B573">
         <v>1674360</v>
       </c>
@@ -54709,7 +54708,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="574" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B574">
         <v>1674360</v>
       </c>
@@ -54774,7 +54773,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="575" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B575">
         <v>1547008</v>
       </c>
@@ -54839,7 +54838,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="576" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B576">
         <v>67101</v>
       </c>
@@ -54904,7 +54903,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="577" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B577">
         <v>67103</v>
       </c>
@@ -54969,7 +54968,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="578" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B578">
         <v>1038185</v>
       </c>
@@ -55034,7 +55033,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="579" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B579">
         <v>74374</v>
       </c>
@@ -55099,7 +55098,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="580" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>63</v>
       </c>
@@ -55206,7 +55205,7 @@
         <v>45814</v>
       </c>
     </row>
-    <row r="581" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>58</v>
       </c>
@@ -55307,7 +55306,7 @@
         <v>45812</v>
       </c>
     </row>
-    <row r="582" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>70</v>
       </c>
@@ -55408,7 +55407,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="583" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>79</v>
       </c>
@@ -55515,7 +55514,7 @@
         <v>45834</v>
       </c>
     </row>
-    <row r="584" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>81</v>
       </c>
@@ -55616,7 +55615,7 @@
         <v>45835</v>
       </c>
     </row>
-    <row r="585" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>81</v>
       </c>
@@ -55723,7 +55722,7 @@
         <v>45835</v>
       </c>
     </row>
-    <row r="586" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>79</v>
       </c>
@@ -55848,7 +55847,7 @@
         <v>45834</v>
       </c>
     </row>
-    <row r="587" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>79</v>
       </c>
@@ -55949,7 +55948,7 @@
         <v>45834</v>
       </c>
     </row>
-    <row r="588" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>73</v>
       </c>
@@ -56062,7 +56061,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="589" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>87</v>
       </c>
@@ -56169,7 +56168,7 @@
         <v>45840</v>
       </c>
     </row>
-    <row r="590" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>87</v>
       </c>
@@ -56270,7 +56269,7 @@
         <v>45840</v>
       </c>
     </row>
-    <row r="591" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>87</v>
       </c>
@@ -56371,7 +56370,7 @@
         <v>45840</v>
       </c>
     </row>
-    <row r="592" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>84</v>
       </c>
@@ -56472,7 +56471,7 @@
         <v>45839</v>
       </c>
     </row>
-    <row r="593" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>82</v>
       </c>
@@ -56570,7 +56569,7 @@
         <v>45835</v>
       </c>
     </row>
-    <row r="594" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>79</v>
       </c>
@@ -56668,7 +56667,7 @@
         <v>45833</v>
       </c>
     </row>
-    <row r="595" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>79</v>
       </c>
@@ -56766,7 +56765,7 @@
         <v>45833</v>
       </c>
     </row>
-    <row r="596" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>88</v>
       </c>
@@ -56867,7 +56866,7 @@
         <v>45841</v>
       </c>
     </row>
-    <row r="597" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>87</v>
       </c>
@@ -56974,7 +56973,7 @@
         <v>45840</v>
       </c>
     </row>
-    <row r="598" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>87</v>
       </c>
@@ -57075,7 +57074,7 @@
         <v>45840</v>
       </c>
     </row>
-    <row r="599" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>85</v>
       </c>
@@ -57182,7 +57181,7 @@
         <v>45840</v>
       </c>
     </row>
-    <row r="600" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>85</v>
       </c>
@@ -57289,7 +57288,7 @@
         <v>45840</v>
       </c>
     </row>
-    <row r="601" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>84</v>
       </c>
@@ -57378,7 +57377,7 @@
         <v>45839</v>
       </c>
     </row>
-    <row r="602" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>82</v>
       </c>
@@ -57479,7 +57478,7 @@
         <v>45835</v>
       </c>
     </row>
-    <row r="603" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B603">
         <v>2050738</v>
       </c>
@@ -57544,7 +57543,7 @@
         <v>41137</v>
       </c>
     </row>
-    <row r="604" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B604">
         <v>2050738</v>
       </c>
@@ -57609,7 +57608,7 @@
         <v>41137</v>
       </c>
     </row>
-    <row r="605" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B605">
         <v>2050738</v>
       </c>
@@ -57674,7 +57673,7 @@
         <v>41137</v>
       </c>
     </row>
-    <row r="606" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>16</v>
       </c>
@@ -57778,7 +57777,7 @@
         <v>41219</v>
       </c>
     </row>
-    <row r="607" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>16</v>
       </c>
@@ -57882,7 +57881,7 @@
         <v>41311</v>
       </c>
     </row>
-    <row r="608" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>16</v>
       </c>
@@ -57986,7 +57985,7 @@
         <v>41407</v>
       </c>
     </row>
-    <row r="609" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>16</v>
       </c>
@@ -58090,7 +58089,7 @@
         <v>41495</v>
       </c>
     </row>
-    <row r="610" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>16</v>
       </c>
@@ -58194,7 +58193,7 @@
         <v>41592</v>
       </c>
     </row>
-    <row r="611" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>16</v>
       </c>
@@ -58298,7 +58297,7 @@
         <v>41687</v>
       </c>
     </row>
-    <row r="612" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>16</v>
       </c>
@@ -58399,7 +58398,7 @@
         <v>42054</v>
       </c>
     </row>
-    <row r="613" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>12</v>
       </c>
@@ -58500,7 +58499,7 @@
         <v>42313</v>
       </c>
     </row>
-    <row r="614" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>12</v>
       </c>
@@ -58601,7 +58600,7 @@
         <v>42486</v>
       </c>
     </row>
-    <row r="615" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>12</v>
       </c>
@@ -58702,7 +58701,7 @@
         <v>42587</v>
       </c>
     </row>
-    <row r="616" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>12</v>
       </c>
@@ -58803,7 +58802,7 @@
         <v>42662</v>
       </c>
     </row>
-    <row r="617" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>12</v>
       </c>
@@ -58904,7 +58903,7 @@
         <v>42753</v>
       </c>
     </row>
-    <row r="618" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>12</v>
       </c>
@@ -59005,7 +59004,7 @@
         <v>42844</v>
       </c>
     </row>
-    <row r="619" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>12</v>
       </c>
@@ -59106,7 +59105,7 @@
         <v>42940</v>
       </c>
     </row>
-    <row r="620" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>12</v>
       </c>
@@ -59207,7 +59206,7 @@
         <v>43032</v>
       </c>
     </row>
-    <row r="621" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>12</v>
       </c>
@@ -59308,7 +59307,7 @@
         <v>43117</v>
       </c>
     </row>
-    <row r="622" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>12</v>
       </c>
@@ -59409,7 +59408,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="623" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>12</v>
       </c>
@@ -59510,7 +59509,7 @@
         <v>43298</v>
       </c>
     </row>
-    <row r="624" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>12</v>
       </c>
@@ -59611,7 +59610,7 @@
         <v>43402</v>
       </c>
     </row>
-    <row r="625" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>12</v>
       </c>
@@ -59712,7 +59711,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="626" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>12</v>
       </c>
@@ -59813,7 +59812,7 @@
         <v>43571</v>
       </c>
     </row>
-    <row r="627" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>12</v>
       </c>
@@ -59914,7 +59913,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="628" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>12</v>
       </c>
@@ -60015,7 +60014,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="629" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>12</v>
       </c>
@@ -60116,7 +60115,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="630" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>12</v>
       </c>
@@ -60217,7 +60216,7 @@
         <v>43958</v>
       </c>
     </row>
-    <row r="631" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>12</v>
       </c>
@@ -60318,7 +60317,7 @@
         <v>44055</v>
       </c>
     </row>
-    <row r="632" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>12</v>
       </c>
@@ -60422,7 +60421,7 @@
         <v>44151</v>
       </c>
     </row>
-    <row r="633" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>12</v>
       </c>
@@ -60523,7 +60522,7 @@
         <v>44218</v>
       </c>
     </row>
-    <row r="634" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>12</v>
       </c>
@@ -60624,7 +60623,7 @@
         <v>44302</v>
       </c>
     </row>
-    <row r="635" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>12</v>
       </c>
@@ -60725,7 +60724,7 @@
         <v>44398</v>
       </c>
     </row>
-    <row r="636" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>12</v>
       </c>
@@ -60826,7 +60825,7 @@
         <v>44530</v>
       </c>
     </row>
-    <row r="637" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>12</v>
       </c>
@@ -60927,7 +60926,7 @@
         <v>44589</v>
       </c>
     </row>
-    <row r="638" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>15</v>
       </c>
@@ -61028,7 +61027,7 @@
         <v>44670</v>
       </c>
     </row>
-    <row r="639" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>15</v>
       </c>
@@ -61129,7 +61128,7 @@
         <v>44761</v>
       </c>
     </row>
-    <row r="640" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>15</v>
       </c>
@@ -61230,7 +61229,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="641" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>15</v>
       </c>
@@ -61331,7 +61330,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="642" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>15</v>
       </c>
@@ -61432,7 +61431,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="643" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>15</v>
       </c>
@@ -61533,7 +61532,7 @@
         <v>45126</v>
       </c>
     </row>
-    <row r="644" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>15</v>
       </c>
@@ -61634,7 +61633,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="645" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>15</v>
       </c>
@@ -61735,7 +61734,7 @@
         <v>45313</v>
       </c>
     </row>
-    <row r="646" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>15</v>
       </c>
@@ -61836,7 +61835,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="647" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>15</v>
       </c>
@@ -61937,7 +61936,7 @@
         <v>45491</v>
       </c>
     </row>
-    <row r="648" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>15</v>
       </c>
@@ -62038,7 +62037,7 @@
         <v>45583</v>
       </c>
     </row>
-    <row r="649" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>15</v>
       </c>
@@ -62139,7 +62138,7 @@
         <v>45679</v>
       </c>
     </row>
-    <row r="650" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>82</v>
       </c>
@@ -62240,7 +62239,7 @@
         <v>45835</v>
       </c>
     </row>
-    <row r="651" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>84</v>
       </c>
@@ -62341,7 +62340,7 @@
         <v>45839</v>
       </c>
     </row>
-    <row r="652" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>84</v>
       </c>
@@ -62448,7 +62447,7 @@
         <v>45839</v>
       </c>
     </row>
-    <row r="653" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>84</v>
       </c>
@@ -62537,7 +62536,7 @@
         <v>45839</v>
       </c>
     </row>
-    <row r="654" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>78</v>
       </c>
@@ -62662,7 +62661,7 @@
         <v>45832</v>
       </c>
     </row>
-    <row r="655" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>78</v>
       </c>
@@ -62763,7 +62762,7 @@
         <v>45832</v>
       </c>
     </row>
-    <row r="656" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>78</v>
       </c>
@@ -62864,7 +62863,7 @@
         <v>45832</v>
       </c>
     </row>
-    <row r="657" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>78</v>
       </c>
@@ -62965,7 +62964,7 @@
         <v>45832</v>
       </c>
     </row>
-    <row r="658" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>78</v>
       </c>
@@ -63066,7 +63065,7 @@
         <v>45832</v>
       </c>
     </row>
-    <row r="659" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B659">
         <v>195765</v>
       </c>
@@ -63131,7 +63130,7 @@
         <v>45821</v>
       </c>
     </row>
-    <row r="660" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>78</v>
       </c>
@@ -63232,7 +63231,7 @@
         <v>45832</v>
       </c>
     </row>
-    <row r="661" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>79</v>
       </c>
@@ -63345,7 +63344,7 @@
         <v>45833</v>
       </c>
     </row>
-    <row r="662" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>79</v>
       </c>
@@ -63434,7 +63433,7 @@
         <v>45833</v>
       </c>
     </row>
-    <row r="663" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>79</v>
       </c>
@@ -63535,7 +63534,7 @@
         <v>45833</v>
       </c>
     </row>
-    <row r="664" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>79</v>
       </c>
@@ -63636,7 +63635,7 @@
         <v>45833</v>
       </c>
     </row>
-    <row r="665" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>79</v>
       </c>
@@ -63737,7 +63736,7 @@
         <v>45833</v>
       </c>
     </row>
-    <row r="666" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>79</v>
       </c>
@@ -63844,7 +63843,7 @@
         <v>45833</v>
       </c>
     </row>
-    <row r="667" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>76</v>
       </c>
@@ -63945,7 +63944,7 @@
         <v>45831</v>
       </c>
     </row>
-    <row r="668" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>76</v>
       </c>
@@ -64046,7 +64045,7 @@
         <v>45831</v>
       </c>
     </row>
-    <row r="669" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>70</v>
       </c>
@@ -64147,7 +64146,7 @@
         <v>45826</v>
       </c>
     </row>
-    <row r="670" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>64</v>
       </c>
@@ -64236,7 +64235,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="671" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>64</v>
       </c>
@@ -64337,7 +64336,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="672" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>66</v>
       </c>
@@ -64438,7 +64437,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="673" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>64</v>
       </c>
@@ -64539,7 +64538,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="674" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>63</v>
       </c>
@@ -64640,7 +64639,7 @@
         <v>45814</v>
       </c>
     </row>
-    <row r="675" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>66</v>
       </c>
@@ -64747,7 +64746,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="676" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>66</v>
       </c>
@@ -64848,7 +64847,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="677" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B677">
         <v>2135872</v>
       </c>
@@ -64913,7 +64912,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="678" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B678">
         <v>2168598</v>
       </c>
@@ -64982,35 +64981,12 @@
       <c r="AO681" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ678" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="271146"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AQ678" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="e2e773af-3e16-4636-9824-83afac0d94b9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Έγγραφο" ma:contentTypeID="0x01010098545D290BE0734BA8B6C299E7534FBA" ma:contentTypeVersion="16" ma:contentTypeDescription="Δημιουργία νέου εγγράφου" ma:contentTypeScope="" ma:versionID="1115902cd30e7a4632b441f1c694ae99">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e2e773af-3e16-4636-9824-83afac0d94b9" xmlns:ns4="61143ee6-6e73-4235-8b48-cdabdd8f5d93" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2ad643e4c16ba55e677170d252372de3" ns3:_="" ns4:_="">
     <xsd:import namespace="e2e773af-3e16-4636-9824-83afac0d94b9"/>
@@ -65249,32 +65225,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED879408-AD3C-41BE-851F-1F6F069468F2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="61143ee6-6e73-4235-8b48-cdabdd8f5d93"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e2e773af-3e16-4636-9824-83afac0d94b9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DD4BEB4-5E53-4645-BC6E-46A0E3F572BC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="e2e773af-3e16-4636-9824-83afac0d94b9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9750033F-3FD0-4E94-A710-E3287F42DD87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -65291,4 +65259,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DD4BEB4-5E53-4645-BC6E-46A0E3F572BC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED879408-AD3C-41BE-851F-1F6F069468F2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="61143ee6-6e73-4235-8b48-cdabdd8f5d93"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e2e773af-3e16-4636-9824-83afac0d94b9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>